--- a/gd/副本内容设计/通用技能设计.xlsx
+++ b/gd/副本内容设计/通用技能设计.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1058">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -911,14 +911,6 @@
     <t>不填</t>
   </si>
   <si>
-    <t>debuffFireDotSlight</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>火弱Dot</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>点燃（弱）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -930,14 +922,6 @@
     <t>dotFire</t>
   </si>
   <si>
-    <t>debuffFireDotMedium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>火中Dot</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>点燃（中）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -950,14 +934,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffFireDotStrong</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>火强Dot</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>点燃（强）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -966,10 +942,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffWaterDotSlight</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>水弱Dot</t>
   </si>
   <si>
@@ -983,10 +955,6 @@
     <t>dotWater</t>
   </si>
   <si>
-    <t>debuffWateDotMedium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>水中Dot</t>
   </si>
   <si>
@@ -997,10 +965,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffWateDotStrong</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>水强Dot</t>
   </si>
   <si>
@@ -1011,10 +975,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffPlantDotSlight</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>木弱Dot</t>
   </si>
   <si>
@@ -1030,10 +990,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffPlantDotMedium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>木中Dot</t>
   </si>
   <si>
@@ -1048,10 +1004,6 @@
     <t>dotPlant</t>
   </si>
   <si>
-    <t>debuffPlantDotStrong</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>木强Dot</t>
   </si>
   <si>
@@ -1063,10 +1015,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffMetalDotSlight</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>光弱Dot</t>
   </si>
   <si>
@@ -1081,10 +1029,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffMetalDotMedium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>光中Dot</t>
   </si>
   <si>
@@ -1098,10 +1042,6 @@
     <t>dotMetal</t>
   </si>
   <si>
-    <t>debuffMetalDotStrong</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>光强Dot</t>
   </si>
   <si>
@@ -1112,10 +1052,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffEarthDotSlight</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>暗弱Dot</t>
   </si>
   <si>
@@ -1130,10 +1066,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>debuffEarthDotMedium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>暗中Dot</t>
   </si>
   <si>
@@ -1145,10 +1077,6 @@
   </si>
   <si>
     <t>dotEarth</t>
-  </si>
-  <si>
-    <t>debuffEarthDotStrong</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暗强Dot</t>
@@ -4326,6 +4254,265 @@
   </si>
   <si>
     <t>少量速度debuff图标伴有光效下降</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffFireDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffFireDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>magic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>debuffFireDotStrong</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffWaterDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffWateDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffWateDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffPlantDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffPlantDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffPlantDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffMetalDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffMetalDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffMetalDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffEarthDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffEarthDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicdebuffEarthDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffFireDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffFireDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffFireDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffWaterDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffWateDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffWateDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffPlantDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffPlantDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffPlantDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffMetalDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffMetalDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffMetalDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffEarthDotSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffEarthDotMedium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicdebuffEarthDotStrong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理火弱Dot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理火中Dot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理火强Dot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理水弱Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理水中Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理水强Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理木弱Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理木中Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理木强Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理光弱Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理光中Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理光强Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理暗弱Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理暗中Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理暗强Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术火弱Dot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术火中Dot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术火强Dot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术水弱Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术水中Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术水强Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术木弱Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术木中Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术木强Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术光弱Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术光中Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术光强Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术暗弱Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术暗中Dot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术暗强Dot</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4493,7 +4680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4597,12 +4784,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4657,6 +4838,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7930,13 +8120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF141"/>
+  <dimension ref="A1:AF161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E133" sqref="E133"/>
+      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8019,25 +8209,25 @@
       <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>725</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>720</v>
+      <c r="A2" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>702</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>18</v>
@@ -8064,7 +8254,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>22</v>
@@ -8079,10 +8269,10 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="54" t="s">
         <v>25</v>
       </c>
       <c r="U2" s="6" t="s">
@@ -8093,11 +8283,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>721</v>
+      <c r="A3" s="36" t="s">
+        <v>700</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>703</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>28</v>
@@ -8124,7 +8314,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>25</v>
@@ -8139,18 +8329,18 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="V3" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>719</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>722</v>
+      <c r="A4" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>704</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>34</v>
@@ -8177,7 +8367,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>25</v>
@@ -8192,18 +8382,18 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
       <c r="V4" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>733</v>
+      <c r="A5" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>715</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -8230,7 +8420,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>22</v>
@@ -8245,16 +8435,16 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>734</v>
+      <c r="A6" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>716</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>28</v>
@@ -8281,7 +8471,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>25</v>
@@ -8296,16 +8486,16 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>735</v>
+      <c r="A7" s="36" t="s">
+        <v>709</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>717</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>34</v>
@@ -8332,7 +8522,7 @@
         <v>31</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>25</v>
@@ -8347,16 +8537,16 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
       <c r="V7" s="12"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>736</v>
+      <c r="A8" s="36" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>718</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -8383,7 +8573,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>22</v>
@@ -8398,16 +8588,16 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
       <c r="V8" s="12"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>728</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>737</v>
+      <c r="A9" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>719</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
@@ -8434,7 +8624,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>25</v>
@@ -8449,16 +8639,16 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
       <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>729</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>738</v>
+      <c r="A10" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>720</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>34</v>
@@ -8485,7 +8675,7 @@
         <v>31</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>25</v>
@@ -8500,16 +8690,16 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
       <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>747</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>739</v>
+      <c r="A11" s="36" t="s">
+        <v>729</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>721</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>18</v>
@@ -8536,7 +8726,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>22</v>
@@ -8551,16 +8741,16 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="17"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>730</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>740</v>
+      <c r="A12" s="36" t="s">
+        <v>712</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>722</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>28</v>
@@ -8587,7 +8777,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>25</v>
@@ -8602,16 +8792,16 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="17"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
       <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>731</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>741</v>
+      <c r="A13" s="36" t="s">
+        <v>713</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>723</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>34</v>
@@ -8638,7 +8828,7 @@
         <v>31</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>25</v>
@@ -8653,16 +8843,16 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
       <c r="V13" s="12"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
-        <v>748</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>742</v>
+      <c r="A14" s="36" t="s">
+        <v>730</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>724</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>18</v>
@@ -8689,7 +8879,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>22</v>
@@ -8704,16 +8894,16 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
       <c r="V14" s="12"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>732</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>743</v>
+      <c r="A15" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>725</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>28</v>
@@ -8740,7 +8930,7 @@
         <v>31</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>25</v>
@@ -8755,16 +8945,16 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
       <c r="V15" s="12"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
-        <v>809</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>744</v>
+      <c r="A16" s="36" t="s">
+        <v>791</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>726</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>34</v>
@@ -8791,7 +8981,7 @@
         <v>31</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>25</v>
@@ -8806,166 +8996,166 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
       <c r="V16" s="12"/>
     </row>
-    <row r="17" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:22" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="45" t="s">
+      <c r="F17" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="46" t="s">
+      <c r="M17" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="47">
-        <v>1</v>
-      </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="V17" s="45">
+      <c r="N17" s="45">
+        <v>1</v>
+      </c>
+      <c r="R17" s="45"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="V17" s="43">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:22" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="45" t="s">
+      <c r="F18" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="47">
-        <v>1</v>
-      </c>
-      <c r="R18" s="47"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="V18" s="45">
+      <c r="N18" s="45">
+        <v>1</v>
+      </c>
+      <c r="R18" s="45"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="V18" s="43">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:22" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="45" t="s">
+      <c r="F19" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="46" t="s">
+      <c r="M19" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="47">
-        <v>1</v>
-      </c>
-      <c r="R19" s="47"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="V19" s="45">
+      <c r="N19" s="45">
+        <v>1</v>
+      </c>
+      <c r="R19" s="45"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="V19" s="43">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>764</v>
+      <c r="A20" s="36" t="s">
+        <v>733</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>746</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>54</v>
@@ -8992,7 +9182,7 @@
         <v>31</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>57</v>
@@ -9007,10 +9197,10 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="17"/>
-      <c r="S20" s="34" t="s">
+      <c r="S20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="T20" s="54" t="s">
         <v>57</v>
       </c>
       <c r="V20" s="12">
@@ -9018,11 +9208,11 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>765</v>
+      <c r="A21" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>747</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>28</v>
@@ -9049,7 +9239,7 @@
         <v>31</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>57</v>
@@ -9064,18 +9254,18 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="17"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
       <c r="V21" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>766</v>
+      <c r="A22" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>748</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>34</v>
@@ -9102,7 +9292,7 @@
         <v>31</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>57</v>
@@ -9117,18 +9307,18 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="17"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
       <c r="V22" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>767</v>
+      <c r="A23" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>749</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>54</v>
@@ -9155,7 +9345,7 @@
         <v>31</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>57</v>
@@ -9170,16 +9360,16 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="17"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
       <c r="V23" s="12"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
-        <v>754</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>768</v>
+      <c r="A24" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>750</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>28</v>
@@ -9206,7 +9396,7 @@
         <v>31</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>57</v>
@@ -9221,16 +9411,16 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
       <c r="V24" s="12"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
-        <v>755</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>769</v>
+      <c r="A25" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>751</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>34</v>
@@ -9257,7 +9447,7 @@
         <v>31</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>57</v>
@@ -9272,16 +9462,16 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="17"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
       <c r="V25" s="12"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
-        <v>756</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>770</v>
+      <c r="A26" s="36" t="s">
+        <v>738</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>752</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>54</v>
@@ -9308,7 +9498,7 @@
         <v>31</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>57</v>
@@ -9323,16 +9513,16 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
       <c r="V26" s="12"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>771</v>
+      <c r="A27" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>753</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>28</v>
@@ -9359,7 +9549,7 @@
         <v>31</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>57</v>
@@ -9374,16 +9564,16 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
       <c r="V27" s="12"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
-        <v>758</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>772</v>
+      <c r="A28" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>754</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>34</v>
@@ -9410,7 +9600,7 @@
         <v>31</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>57</v>
@@ -9425,16 +9615,16 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="17"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
       <c r="V28" s="12"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
-        <v>759</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>773</v>
+      <c r="A29" s="36" t="s">
+        <v>741</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>755</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>54</v>
@@ -9461,7 +9651,7 @@
         <v>31</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>57</v>
@@ -9476,16 +9666,16 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="17"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
       <c r="V29" s="12"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
-        <v>760</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>774</v>
+      <c r="A30" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>756</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>28</v>
@@ -9512,7 +9702,7 @@
         <v>31</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="L30" s="14" t="s">
         <v>57</v>
@@ -9527,16 +9717,16 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="17"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
       <c r="V30" s="12"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
-        <v>761</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>775</v>
+      <c r="A31" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>757</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>34</v>
@@ -9563,7 +9753,7 @@
         <v>31</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>57</v>
@@ -9578,16 +9768,16 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="17"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
       <c r="V31" s="12"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
-        <v>780</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>776</v>
+      <c r="A32" s="36" t="s">
+        <v>762</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>758</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>54</v>
@@ -9614,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>57</v>
@@ -9629,16 +9819,16 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="17"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
       <c r="V32" s="12"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>762</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>777</v>
+      <c r="A33" s="36" t="s">
+        <v>744</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>759</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>28</v>
@@ -9665,7 +9855,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>57</v>
@@ -9680,16 +9870,16 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="17"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
       <c r="V33" s="12"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
-        <v>763</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>778</v>
+      <c r="A34" s="36" t="s">
+        <v>745</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>760</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>34</v>
@@ -9716,7 +9906,7 @@
         <v>31</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>57</v>
@@ -9731,168 +9921,168 @@
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="17"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
       <c r="V34" s="12"/>
     </row>
-    <row r="35" spans="1:32" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="B35" s="41" t="s">
+    <row r="35" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="45" t="s">
+      <c r="F35" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="46" t="s">
+      <c r="L35" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="M35" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N35" s="47">
-        <v>1</v>
-      </c>
-      <c r="R35" s="47"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="V35" s="45">
+      <c r="N35" s="45">
+        <v>1</v>
+      </c>
+      <c r="R35" s="45"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="V35" s="43">
         <v>20</v>
       </c>
-      <c r="AF35" s="49"/>
-    </row>
-    <row r="36" spans="1:32" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="AF35" s="47"/>
+    </row>
+    <row r="36" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="K36" s="45" t="s">
+      <c r="F36" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="L36" s="46" t="s">
+      <c r="L36" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M36" s="46" t="s">
+      <c r="M36" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N36" s="47">
-        <v>1</v>
-      </c>
-      <c r="R36" s="47"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="V36" s="45">
+      <c r="N36" s="45">
+        <v>1</v>
+      </c>
+      <c r="R36" s="45"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="V36" s="43">
         <v>20</v>
       </c>
-      <c r="AF36" s="49"/>
-    </row>
-    <row r="37" spans="1:32" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+      <c r="AF36" s="47"/>
+    </row>
+    <row r="37" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="45" t="s">
+      <c r="F37" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="46" t="s">
+      <c r="L37" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M37" s="46" t="s">
+      <c r="M37" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N37" s="47">
-        <v>1</v>
-      </c>
-      <c r="R37" s="47"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="V37" s="45">
+      <c r="N37" s="45">
+        <v>1</v>
+      </c>
+      <c r="R37" s="45"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="V37" s="43">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
-        <v>781</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>792</v>
+      <c r="A38" s="36" t="s">
+        <v>763</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>774</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>54</v>
@@ -9910,7 +10100,7 @@
         <v>31</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>67</v>
@@ -9919,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>31</v>
@@ -9934,10 +10124,10 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
-      <c r="S38" s="34" t="s">
+      <c r="S38" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="T38" s="34" t="s">
+      <c r="T38" s="54" t="s">
         <v>67</v>
       </c>
       <c r="V38" s="12">
@@ -9945,11 +10135,11 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
-        <v>782</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>793</v>
+      <c r="A39" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>775</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>28</v>
@@ -9967,7 +10157,7 @@
         <v>31</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>67</v>
@@ -9976,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>31</v>
@@ -9991,18 +10181,18 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="17"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
       <c r="V39" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
-        <v>783</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>794</v>
+      <c r="A40" s="36" t="s">
+        <v>765</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>776</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>34</v>
@@ -10020,7 +10210,7 @@
         <v>31</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="I40" s="20" t="s">
         <v>67</v>
@@ -10029,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>31</v>
@@ -10044,18 +10234,18 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="17"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
       <c r="V40" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
-        <v>807</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>795</v>
+      <c r="A41" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>777</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>54</v>
@@ -10073,7 +10263,7 @@
         <v>31</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="I41" s="20" t="s">
         <v>67</v>
@@ -10082,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>31</v>
@@ -10102,11 +10292,11 @@
       <c r="V41" s="12"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>784</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>796</v>
+      <c r="A42" s="36" t="s">
+        <v>766</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>778</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>28</v>
@@ -10124,7 +10314,7 @@
         <v>31</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>67</v>
@@ -10133,7 +10323,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>31</v>
@@ -10153,11 +10343,11 @@
       <c r="V42" s="12"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
-        <v>785</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>797</v>
+      <c r="A43" s="36" t="s">
+        <v>767</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>779</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>34</v>
@@ -10175,7 +10365,7 @@
         <v>31</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="I43" s="20" t="s">
         <v>67</v>
@@ -10184,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>31</v>
@@ -10204,11 +10394,11 @@
       <c r="V43" s="12"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
-        <v>786</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>798</v>
+      <c r="A44" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>780</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>54</v>
@@ -10226,7 +10416,7 @@
         <v>31</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>67</v>
@@ -10235,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>31</v>
@@ -10255,11 +10445,11 @@
       <c r="V44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
-        <v>787</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>799</v>
+      <c r="A45" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>781</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>28</v>
@@ -10277,7 +10467,7 @@
         <v>31</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>67</v>
@@ -10286,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>31</v>
@@ -10306,11 +10496,11 @@
       <c r="V45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
-        <v>788</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>800</v>
+      <c r="A46" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>782</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>34</v>
@@ -10328,7 +10518,7 @@
         <v>31</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="I46" s="20" t="s">
         <v>67</v>
@@ -10337,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>31</v>
@@ -10357,11 +10547,11 @@
       <c r="V46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
-        <v>823</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>801</v>
+      <c r="A47" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>783</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>54</v>
@@ -10379,7 +10569,7 @@
         <v>31</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>67</v>
@@ -10388,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="L47" s="12" t="s">
         <v>31</v>
@@ -10408,11 +10598,11 @@
       <c r="V47" s="12"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
-        <v>789</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>802</v>
+      <c r="A48" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>784</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>28</v>
@@ -10430,7 +10620,7 @@
         <v>31</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="I48" s="20" t="s">
         <v>67</v>
@@ -10439,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>31</v>
@@ -10459,11 +10649,11 @@
       <c r="V48" s="12"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
-        <v>790</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>803</v>
+      <c r="A49" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>785</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>34</v>
@@ -10481,7 +10671,7 @@
         <v>31</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>67</v>
@@ -10490,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>31</v>
@@ -10510,11 +10700,11 @@
       <c r="V49" s="12"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
-        <v>824</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>804</v>
+      <c r="A50" s="36" t="s">
+        <v>806</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>786</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>54</v>
@@ -10532,7 +10722,7 @@
         <v>31</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>67</v>
@@ -10541,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="L50" s="12" t="s">
         <v>31</v>
@@ -10561,11 +10751,11 @@
       <c r="V50" s="12"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
-        <v>808</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>805</v>
+      <c r="A51" s="36" t="s">
+        <v>790</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>787</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>28</v>
@@ -10583,7 +10773,7 @@
         <v>31</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>67</v>
@@ -10592,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>31</v>
@@ -10612,11 +10802,11 @@
       <c r="V51" s="12"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
-        <v>791</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>806</v>
+      <c r="A52" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>788</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>34</v>
@@ -10634,7 +10824,7 @@
         <v>31</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="I52" s="20" t="s">
         <v>67</v>
@@ -10643,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="L52" s="12" t="s">
         <v>31</v>
@@ -10663,11 +10853,11 @@
       <c r="V52" s="12"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
-        <v>896</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>981</v>
+      <c r="A53" s="36" t="s">
+        <v>878</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>963</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>54</v>
@@ -10694,7 +10884,7 @@
         <v>21</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="L53" s="14" t="s">
         <v>22</v>
@@ -10714,11 +10904,11 @@
       <c r="V53" s="12"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
-        <v>876</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>982</v>
+      <c r="A54" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>964</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>54</v>
@@ -10726,8 +10916,8 @@
       <c r="D54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="38" t="s">
-        <v>826</v>
+      <c r="E54" s="36" t="s">
+        <v>808</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>21</v>
@@ -10745,7 +10935,7 @@
         <v>21</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="L54" s="14" t="s">
         <v>22</v>
@@ -10765,11 +10955,11 @@
       <c r="V54" s="12"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
-        <v>877</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>983</v>
+      <c r="A55" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>965</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>54</v>
@@ -10778,7 +10968,7 @@
         <v>55</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>21</v>
@@ -10796,7 +10986,7 @@
         <v>21</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>22</v>
@@ -10816,11 +11006,11 @@
       <c r="V55" s="12"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
-        <v>878</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>984</v>
+      <c r="A56" s="36" t="s">
+        <v>860</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>966</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>54</v>
@@ -10828,8 +11018,8 @@
       <c r="D56" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="38" t="s">
-        <v>825</v>
+      <c r="E56" s="36" t="s">
+        <v>807</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>21</v>
@@ -10847,7 +11037,7 @@
         <v>21</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="L56" s="14" t="s">
         <v>22</v>
@@ -10867,11 +11057,11 @@
       <c r="V56" s="12"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
-        <v>879</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>985</v>
+      <c r="A57" s="36" t="s">
+        <v>861</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>967</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>54</v>
@@ -10880,7 +11070,7 @@
         <v>55</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>21</v>
@@ -10898,7 +11088,7 @@
         <v>21</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="L57" s="14" t="s">
         <v>22</v>
@@ -10918,11 +11108,11 @@
       <c r="V57" s="12"/>
     </row>
     <row r="58" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
-        <v>836</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>830</v>
+      <c r="A58" s="35" t="s">
+        <v>818</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>812</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>69</v>
@@ -10940,7 +11130,7 @@
         <v>73</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>75</v>
@@ -10949,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>77</v>
@@ -10964,10 +11154,10 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
-      <c r="S58" s="34" t="s">
+      <c r="S58" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="T58" s="34" t="s">
+      <c r="T58" s="54" t="s">
         <v>79</v>
       </c>
       <c r="V58" s="12">
@@ -10975,11 +11165,11 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" s="37" t="s">
-        <v>837</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>831</v>
+      <c r="A59" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>813</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>80</v>
@@ -10997,7 +11187,7 @@
         <v>73</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>75</v>
@@ -11006,7 +11196,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="L59" s="13" t="s">
         <v>77</v>
@@ -11021,18 +11211,18 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
       <c r="V59" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
-        <v>838</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>832</v>
+      <c r="A60" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>814</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>84</v>
@@ -11050,7 +11240,7 @@
         <v>73</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>75</v>
@@ -11059,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="L60" s="13" t="s">
         <v>77</v>
@@ -11085,11 +11275,11 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="37" t="s">
-        <v>839</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>833</v>
+      <c r="A61" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>815</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>69</v>
@@ -11107,7 +11297,7 @@
         <v>73</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>75</v>
@@ -11116,10 +11306,10 @@
         <v>1</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="M61" s="14" t="s">
         <v>32</v>
@@ -11130,17 +11320,17 @@
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="16"/>
-      <c r="R61" s="50"/>
+      <c r="R61" s="48"/>
       <c r="S61" s="25"/>
       <c r="T61" s="25"/>
       <c r="V61" s="12"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="37" t="s">
-        <v>840</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>834</v>
+      <c r="A62" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>816</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>80</v>
@@ -11158,7 +11348,7 @@
         <v>73</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>75</v>
@@ -11167,10 +11357,10 @@
         <v>1</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="L62" s="13" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="M62" s="14" t="s">
         <v>32</v>
@@ -11181,17 +11371,17 @@
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="16"/>
-      <c r="R62" s="50"/>
+      <c r="R62" s="48"/>
       <c r="S62" s="25"/>
       <c r="T62" s="25"/>
       <c r="V62" s="12"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
-        <v>841</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>835</v>
+      <c r="A63" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>817</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>84</v>
@@ -11209,7 +11399,7 @@
         <v>73</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>75</v>
@@ -11218,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="L63" s="13" t="s">
         <v>86</v>
@@ -11232,17 +11422,17 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
-      <c r="R63" s="50"/>
+      <c r="R63" s="48"/>
       <c r="S63" s="25"/>
       <c r="T63" s="25"/>
       <c r="V63" s="12"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
-        <v>903</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>897</v>
+      <c r="A64" s="35" t="s">
+        <v>885</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>879</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>90</v>
@@ -11269,7 +11459,7 @@
         <v>31</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
       <c r="L64" s="14" t="s">
         <v>25</v>
@@ -11292,11 +11482,11 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>898</v>
+      <c r="A65" s="35" t="s">
+        <v>886</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>880</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>95</v>
@@ -11323,7 +11513,7 @@
         <v>31</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="L65" s="14" t="s">
         <v>25</v>
@@ -11338,10 +11528,10 @@
       <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
-      <c r="S65" s="34" t="s">
+      <c r="S65" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="T65" s="34" t="s">
+      <c r="T65" s="54" t="s">
         <v>99</v>
       </c>
       <c r="V65" s="12">
@@ -11349,11 +11539,11 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
-        <v>905</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>899</v>
+      <c r="A66" s="35" t="s">
+        <v>887</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>881</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>100</v>
@@ -11380,7 +11570,7 @@
         <v>31</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="L66" s="14" t="s">
         <v>25</v>
@@ -11395,18 +11585,18 @@
       <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
       <c r="V66" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A67" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>900</v>
+      <c r="A67" s="35" t="s">
+        <v>901</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>882</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>90</v>
@@ -11424,7 +11614,7 @@
         <v>93</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>104</v>
@@ -11433,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="L67" s="12" t="s">
         <v>31</v>
@@ -11453,11 +11643,11 @@
       <c r="V67" s="12"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
-        <v>906</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>901</v>
+      <c r="A68" s="35" t="s">
+        <v>888</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>883</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>95</v>
@@ -11475,7 +11665,7 @@
         <v>93</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>104</v>
@@ -11484,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>31</v>
@@ -11504,11 +11694,11 @@
       <c r="V68" s="12"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
-        <v>907</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>902</v>
+      <c r="A69" s="35" t="s">
+        <v>889</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>884</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>100</v>
@@ -11526,7 +11716,7 @@
         <v>93</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>104</v>
@@ -11535,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="L69" s="12" t="s">
         <v>31</v>
@@ -11555,11 +11745,11 @@
       <c r="V69" s="12"/>
     </row>
     <row r="70" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70" s="37" t="s">
-        <v>933</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>963</v>
+      <c r="A70" s="35" t="s">
+        <v>915</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>945</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>105</v>
@@ -11577,7 +11767,7 @@
         <v>108</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="I70" s="13" t="s">
         <v>122</v>
@@ -11586,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="L70" s="12" t="s">
         <v>109</v>
@@ -11612,11 +11802,11 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="37" t="s">
-        <v>917</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>964</v>
+      <c r="A71" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>946</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>112</v>
@@ -11634,7 +11824,7 @@
         <v>108</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>122</v>
@@ -11643,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="L71" s="12" t="s">
         <v>109</v>
@@ -11669,11 +11859,11 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="37" t="s">
-        <v>918</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>965</v>
+      <c r="A72" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>947</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>119</v>
@@ -11691,7 +11881,7 @@
         <v>108</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>122</v>
@@ -11700,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="L72" s="12" t="s">
         <v>109</v>
@@ -11726,11 +11916,11 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="s">
-        <v>937</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>966</v>
+      <c r="A73" s="35" t="s">
+        <v>919</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>948</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>105</v>
@@ -11748,7 +11938,7 @@
         <v>108</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>115</v>
@@ -11757,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="L73" s="12" t="s">
         <v>109</v>
@@ -11777,11 +11967,11 @@
       <c r="V73" s="12"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="37" t="s">
-        <v>920</v>
-      </c>
-      <c r="B74" s="38" t="s">
-        <v>967</v>
+      <c r="A74" s="35" t="s">
+        <v>902</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>949</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>112</v>
@@ -11799,7 +11989,7 @@
         <v>108</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>115</v>
@@ -11808,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="L74" s="12" t="s">
         <v>109</v>
@@ -11828,11 +12018,11 @@
       <c r="V74" s="12"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
-        <v>921</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>968</v>
+      <c r="A75" s="35" t="s">
+        <v>903</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>950</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>119</v>
@@ -11850,7 +12040,7 @@
         <v>108</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="I75" s="13" t="s">
         <v>115</v>
@@ -11859,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="L75" s="12" t="s">
         <v>109</v>
@@ -11879,11 +12069,11 @@
       <c r="V75" s="12"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
-        <v>934</v>
-      </c>
-      <c r="B76" s="38" t="s">
-        <v>969</v>
+      <c r="A76" s="35" t="s">
+        <v>916</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>951</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>125</v>
@@ -11901,7 +12091,7 @@
         <v>128</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>129</v>
@@ -11910,7 +12100,7 @@
         <v>32</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="L76" s="12" t="s">
         <v>130</v>
@@ -11925,10 +12115,10 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="17"/>
-      <c r="S76" s="34" t="s">
+      <c r="S76" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="T76" s="34" t="s">
+      <c r="T76" s="54" t="s">
         <v>132</v>
       </c>
       <c r="V76" s="12">
@@ -11936,11 +12126,11 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
-        <v>935</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>970</v>
+      <c r="A77" s="35" t="s">
+        <v>917</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>952</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>134</v>
@@ -11958,7 +12148,7 @@
         <v>128</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>129</v>
@@ -11967,7 +12157,7 @@
         <v>32</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="L77" s="12" t="s">
         <v>130</v>
@@ -11982,18 +12172,18 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="17"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
+      <c r="S77" s="54"/>
+      <c r="T77" s="54"/>
       <c r="V77" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="37" t="s">
-        <v>936</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>971</v>
+      <c r="A78" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>953</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>140</v>
@@ -12011,7 +12201,7 @@
         <v>128</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>129</v>
@@ -12020,7 +12210,7 @@
         <v>32</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="L78" s="12" t="s">
         <v>130</v>
@@ -12046,11 +12236,11 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
-        <v>938</v>
-      </c>
-      <c r="B79" s="38" t="s">
-        <v>972</v>
+      <c r="A79" s="35" t="s">
+        <v>920</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>954</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>125</v>
@@ -12068,7 +12258,7 @@
         <v>128</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>142</v>
@@ -12077,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="L79" s="12" t="s">
         <v>143</v>
@@ -12095,11 +12285,11 @@
       <c r="V79" s="12"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
-        <v>939</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>973</v>
+      <c r="A80" s="35" t="s">
+        <v>921</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>955</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>134</v>
@@ -12117,7 +12307,7 @@
         <v>128</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>142</v>
@@ -12126,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="L80" s="12" t="s">
         <v>143</v>
@@ -12144,11 +12334,11 @@
       <c r="V80" s="12"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
-        <v>948</v>
-      </c>
-      <c r="B81" s="38" t="s">
-        <v>974</v>
+      <c r="A81" s="35" t="s">
+        <v>930</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>956</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>140</v>
@@ -12166,7 +12356,7 @@
         <v>128</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>142</v>
@@ -12175,7 +12365,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="L81" s="12" t="s">
         <v>143</v>
@@ -12193,11 +12383,11 @@
       <c r="V81" s="12"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
-        <v>950</v>
-      </c>
-      <c r="B82" s="38" t="s">
-        <v>975</v>
+      <c r="A82" s="35" t="s">
+        <v>932</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>957</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>145</v>
@@ -12224,7 +12414,7 @@
         <v>143</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="L82" s="13" t="s">
         <v>150</v>
@@ -12232,17 +12422,17 @@
       <c r="M82" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="N82" s="52">
+      <c r="N82" s="50">
         <v>1</v>
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="17"/>
-      <c r="S82" s="35" t="s">
+      <c r="S82" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="T82" s="34" t="s">
+      <c r="T82" s="54" t="s">
         <v>152</v>
       </c>
       <c r="V82" s="12">
@@ -12250,11 +12440,11 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
-        <v>951</v>
-      </c>
-      <c r="B83" s="38" t="s">
-        <v>976</v>
+      <c r="A83" s="35" t="s">
+        <v>933</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>958</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>153</v>
@@ -12281,7 +12471,7 @@
         <v>143</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="L83" s="13" t="s">
         <v>150</v>
@@ -12296,18 +12486,18 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="17"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="34"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="54"/>
       <c r="V83" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
-        <v>952</v>
-      </c>
-      <c r="B84" s="38" t="s">
-        <v>977</v>
+      <c r="A84" s="35" t="s">
+        <v>934</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>959</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>156</v>
@@ -12334,7 +12524,7 @@
         <v>31</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="L84" s="13" t="s">
         <v>150</v>
@@ -12360,11 +12550,11 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
-        <v>953</v>
-      </c>
-      <c r="B85" s="38" t="s">
-        <v>978</v>
+      <c r="A85" s="35" t="s">
+        <v>935</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>960</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>145</v>
@@ -12382,7 +12572,7 @@
         <v>148</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>31</v>
@@ -12391,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="L85" s="13" t="s">
         <v>150</v>
@@ -12406,16 +12596,16 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="17"/>
-      <c r="S85" s="51"/>
+      <c r="S85" s="49"/>
       <c r="T85" s="25"/>
       <c r="V85" s="12"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
-        <v>954</v>
-      </c>
-      <c r="B86" s="38" t="s">
-        <v>979</v>
+      <c r="A86" s="35" t="s">
+        <v>936</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>961</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>153</v>
@@ -12433,7 +12623,7 @@
         <v>148</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="I86" s="13" t="s">
         <v>31</v>
@@ -12442,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="L86" s="13" t="s">
         <v>150</v>
@@ -12457,16 +12647,16 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="16"/>
       <c r="R86" s="17"/>
-      <c r="S86" s="51"/>
+      <c r="S86" s="49"/>
       <c r="T86" s="25"/>
       <c r="V86" s="12"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
-        <v>955</v>
-      </c>
-      <c r="B87" s="38" t="s">
-        <v>980</v>
+      <c r="A87" s="35" t="s">
+        <v>937</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>962</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>156</v>
@@ -12484,7 +12674,7 @@
         <v>148</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>31</v>
@@ -12493,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="L87" s="13" t="s">
         <v>150</v>
@@ -12508,16 +12698,16 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
       <c r="R87" s="17"/>
-      <c r="S87" s="51"/>
+      <c r="S87" s="49"/>
       <c r="T87" s="25"/>
       <c r="V87" s="12"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A88" s="38" t="s">
-        <v>717</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>986</v>
+      <c r="A88" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>968</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>69</v>
@@ -12543,32 +12733,32 @@
       <c r="J88" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K88" s="53" t="s">
-        <v>717</v>
+      <c r="K88" s="51" t="s">
+        <v>699</v>
       </c>
       <c r="L88" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="M88" s="54" t="s">
+      <c r="M88" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="N88" s="55">
+      <c r="N88" s="53">
         <v>1</v>
       </c>
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="17"/>
-      <c r="S88" s="51"/>
+      <c r="S88" s="49"/>
       <c r="T88" s="25"/>
       <c r="V88" s="12"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A89" s="38" t="s">
-        <v>960</v>
-      </c>
-      <c r="B89" s="38" t="s">
-        <v>987</v>
+      <c r="A89" s="36" t="s">
+        <v>942</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>969</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>90</v>
@@ -12594,32 +12784,32 @@
       <c r="J89" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K89" s="53" t="s">
-        <v>960</v>
-      </c>
-      <c r="L89" s="54" t="s">
+      <c r="K89" s="51" t="s">
+        <v>942</v>
+      </c>
+      <c r="L89" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="M89" s="54" t="s">
+      <c r="M89" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="N89" s="55">
+      <c r="N89" s="53">
         <v>1</v>
       </c>
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="17"/>
-      <c r="S89" s="51"/>
+      <c r="S89" s="49"/>
       <c r="T89" s="25"/>
       <c r="V89" s="12"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A90" s="38" t="s">
-        <v>916</v>
-      </c>
-      <c r="B90" s="38" t="s">
-        <v>988</v>
+      <c r="A90" s="36" t="s">
+        <v>898</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>970</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>105</v>
@@ -12645,32 +12835,32 @@
       <c r="J90" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K90" s="53" t="s">
-        <v>916</v>
-      </c>
-      <c r="L90" s="53" t="s">
+      <c r="K90" s="51" t="s">
+        <v>898</v>
+      </c>
+      <c r="L90" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="M90" s="54" t="s">
+      <c r="M90" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="55">
+      <c r="N90" s="53">
         <v>1</v>
       </c>
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="17"/>
-      <c r="S90" s="51"/>
+      <c r="S90" s="49"/>
       <c r="T90" s="25"/>
       <c r="V90" s="12"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A91" s="38" t="s">
-        <v>961</v>
-      </c>
-      <c r="B91" s="38" t="s">
-        <v>989</v>
+      <c r="A91" s="36" t="s">
+        <v>943</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>971</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>125</v>
@@ -12696,32 +12886,32 @@
       <c r="J91" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K91" s="53" t="s">
-        <v>961</v>
-      </c>
-      <c r="L91" s="53" t="s">
+      <c r="K91" s="51" t="s">
+        <v>943</v>
+      </c>
+      <c r="L91" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="M91" s="54" t="s">
+      <c r="M91" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="N91" s="55">
+      <c r="N91" s="53">
         <v>1</v>
       </c>
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="17"/>
-      <c r="S91" s="51"/>
+      <c r="S91" s="49"/>
       <c r="T91" s="25"/>
       <c r="V91" s="12"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A92" s="38" t="s">
-        <v>962</v>
-      </c>
-      <c r="B92" s="38" t="s">
-        <v>990</v>
+      <c r="A92" s="36" t="s">
+        <v>944</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>972</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>145</v>
@@ -12747,23 +12937,23 @@
       <c r="J92" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K92" s="53" t="s">
-        <v>962</v>
+      <c r="K92" s="51" t="s">
+        <v>944</v>
       </c>
       <c r="L92" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="M92" s="54" t="s">
+      <c r="M92" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="N92" s="55">
+      <c r="N92" s="53">
         <v>1</v>
       </c>
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="17"/>
-      <c r="S92" s="51"/>
+      <c r="S92" s="49"/>
       <c r="T92" s="25"/>
       <c r="V92" s="12"/>
     </row>
@@ -12814,10 +13004,10 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="16"/>
       <c r="R93" s="17"/>
-      <c r="S93" s="34" t="s">
+      <c r="S93" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="T93" s="34" t="s">
+      <c r="T93" s="54" t="s">
         <v>169</v>
       </c>
       <c r="V93" s="12">
@@ -12871,8 +13061,8 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="16"/>
       <c r="R94" s="17"/>
-      <c r="S94" s="34"/>
-      <c r="T94" s="34"/>
+      <c r="S94" s="54"/>
+      <c r="T94" s="54"/>
       <c r="V94" s="12">
         <v>20</v>
       </c>
@@ -12924,15 +13114,15 @@
       <c r="P95" s="16"/>
       <c r="Q95" s="16"/>
       <c r="R95" s="17"/>
-      <c r="S95" s="34"/>
-      <c r="T95" s="34"/>
+      <c r="S95" s="54"/>
+      <c r="T95" s="54"/>
       <c r="V95" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A96" s="38" t="s">
-        <v>992</v>
+      <c r="A96" s="36" t="s">
+        <v>974</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>178</v>
@@ -12962,7 +13152,7 @@
         <v>31</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="L96" s="14" t="s">
         <v>182</v>
@@ -12977,10 +13167,10 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="16"/>
       <c r="R96" s="17"/>
-      <c r="S96" s="34" t="s">
+      <c r="S96" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="T96" s="34" t="s">
+      <c r="T96" s="54" t="s">
         <v>182</v>
       </c>
       <c r="V96" s="12">
@@ -12988,8 +13178,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A97" s="38" t="s">
-        <v>993</v>
+      <c r="A97" s="36" t="s">
+        <v>975</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>184</v>
@@ -13019,7 +13209,7 @@
         <v>31</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="L97" s="14" t="s">
         <v>182</v>
@@ -13034,15 +13224,15 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="17"/>
-      <c r="S97" s="34"/>
-      <c r="T97" s="34"/>
+      <c r="S97" s="54"/>
+      <c r="T97" s="54"/>
       <c r="V97" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A98" s="38" t="s">
-        <v>996</v>
+      <c r="A98" s="36" t="s">
+        <v>978</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>188</v>
@@ -13072,7 +13262,7 @@
         <v>31</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="L98" s="14" t="s">
         <v>182</v>
@@ -13087,15 +13277,15 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="17"/>
-      <c r="S98" s="34"/>
-      <c r="T98" s="34"/>
+      <c r="S98" s="54"/>
+      <c r="T98" s="54"/>
       <c r="V98" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A99" s="38" t="s">
-        <v>998</v>
+      <c r="A99" s="36" t="s">
+        <v>980</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>191</v>
@@ -13125,7 +13315,7 @@
         <v>31</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="L99" s="14" t="s">
         <v>182</v>
@@ -13140,8 +13330,8 @@
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="17"/>
-      <c r="S99" s="34"/>
-      <c r="T99" s="34"/>
+      <c r="S99" s="54"/>
+      <c r="T99" s="54"/>
       <c r="V99" s="12">
         <v>20</v>
       </c>
@@ -13178,7 +13368,7 @@
         <v>31</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="L100" s="14" t="s">
         <v>182</v>
@@ -13193,8 +13383,8 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="16"/>
       <c r="R100" s="17"/>
-      <c r="S100" s="34"/>
-      <c r="T100" s="34"/>
+      <c r="S100" s="54"/>
+      <c r="T100" s="54"/>
       <c r="V100" s="12">
         <v>20</v>
       </c>
@@ -13231,7 +13421,7 @@
         <v>31</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="L101" s="14" t="s">
         <v>182</v>
@@ -13246,8 +13436,8 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="16"/>
       <c r="R101" s="17"/>
-      <c r="S101" s="34"/>
-      <c r="T101" s="34"/>
+      <c r="S101" s="54"/>
+      <c r="T101" s="54"/>
       <c r="V101" s="12">
         <v>20</v>
       </c>
@@ -13284,7 +13474,7 @@
         <v>31</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="L102" s="14" t="s">
         <v>182</v>
@@ -13299,8 +13489,8 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="16"/>
       <c r="R102" s="17"/>
-      <c r="S102" s="34"/>
-      <c r="T102" s="34"/>
+      <c r="S102" s="54"/>
+      <c r="T102" s="54"/>
       <c r="V102" s="12">
         <v>20</v>
       </c>
@@ -13337,7 +13527,7 @@
         <v>31</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="L103" s="14" t="s">
         <v>182</v>
@@ -13352,8 +13542,8 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="17"/>
-      <c r="S103" s="34"/>
-      <c r="T103" s="34"/>
+      <c r="S103" s="54"/>
+      <c r="T103" s="54"/>
       <c r="V103" s="12">
         <v>20</v>
       </c>
@@ -13413,15 +13603,15 @@
       <c r="R104" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S104" s="34"/>
-      <c r="T104" s="34"/>
+      <c r="S104" s="54"/>
+      <c r="T104" s="54"/>
       <c r="V104" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A105" s="38" t="s">
-        <v>1000</v>
+      <c r="A105" s="36" t="s">
+        <v>982</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>214</v>
@@ -13451,7 +13641,7 @@
         <v>31</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="L105" s="12" t="s">
         <v>218</v>
@@ -13466,10 +13656,10 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="34" t="s">
+      <c r="S105" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="T105" s="34" t="s">
+      <c r="T105" s="54" t="s">
         <v>220</v>
       </c>
       <c r="V105" s="12">
@@ -13477,8 +13667,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A106" s="38" t="s">
-        <v>1002</v>
+      <c r="A106" s="36" t="s">
+        <v>984</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>221</v>
@@ -13508,7 +13698,7 @@
         <v>143</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="L106" s="12" t="s">
         <v>218</v>
@@ -13523,15 +13713,15 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="16"/>
       <c r="R106" s="17"/>
-      <c r="S106" s="34"/>
-      <c r="T106" s="34"/>
+      <c r="S106" s="54"/>
+      <c r="T106" s="54"/>
       <c r="V106" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A107" s="38" t="s">
-        <v>1004</v>
+      <c r="A107" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>224</v>
@@ -13561,7 +13751,7 @@
         <v>143</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="L107" s="12" t="s">
         <v>218</v>
@@ -13576,15 +13766,15 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="16"/>
       <c r="R107" s="17"/>
-      <c r="S107" s="34"/>
-      <c r="T107" s="34"/>
+      <c r="S107" s="54"/>
+      <c r="T107" s="54"/>
       <c r="V107" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A108" s="38" t="s">
-        <v>1006</v>
+      <c r="A108" s="36" t="s">
+        <v>988</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>227</v>
@@ -13614,7 +13804,7 @@
         <v>143</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="L108" s="12" t="s">
         <v>218</v>
@@ -13629,24 +13819,24 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="16"/>
       <c r="R108" s="17"/>
-      <c r="S108" s="34"/>
-      <c r="T108" s="34"/>
+      <c r="S108" s="54"/>
+      <c r="T108" s="54"/>
       <c r="V108" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="36" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="D109" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>187</v>
@@ -13679,7 +13869,7 @@
         <v>32</v>
       </c>
       <c r="O109" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P109" s="6" t="s">
         <v>31</v>
@@ -13690,24 +13880,24 @@
       <c r="R109" s="15">
         <v>1</v>
       </c>
-      <c r="S109" s="34"/>
-      <c r="T109" s="34"/>
+      <c r="S109" s="54"/>
+      <c r="T109" s="54"/>
       <c r="V109" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>237</v>
+      <c r="A110" s="36" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>1029</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>187</v>
@@ -13740,7 +13930,7 @@
         <v>32</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P110" s="6" t="s">
         <v>31</v>
@@ -13751,24 +13941,24 @@
       <c r="R110" s="15">
         <v>1</v>
       </c>
-      <c r="S110" s="34"/>
-      <c r="T110" s="34"/>
+      <c r="S110" s="54"/>
+      <c r="T110" s="54"/>
       <c r="V110" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>242</v>
+      <c r="A111" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>1030</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>187</v>
@@ -13801,7 +13991,7 @@
         <v>32</v>
       </c>
       <c r="O111" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P111" s="6" t="s">
         <v>31</v>
@@ -13812,24 +14002,24 @@
       <c r="R111" s="15">
         <v>1</v>
       </c>
-      <c r="S111" s="34"/>
-      <c r="T111" s="34"/>
+      <c r="S111" s="54"/>
+      <c r="T111" s="54"/>
       <c r="V111" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>246</v>
+      <c r="A112" s="36" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>1031</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>187</v>
@@ -13862,7 +14052,7 @@
         <v>32</v>
       </c>
       <c r="O112" s="13" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P112" s="6" t="s">
         <v>31</v>
@@ -13873,24 +14063,24 @@
       <c r="R112" s="15">
         <v>1</v>
       </c>
-      <c r="S112" s="34"/>
-      <c r="T112" s="34"/>
+      <c r="S112" s="54"/>
+      <c r="T112" s="54"/>
       <c r="V112" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>251</v>
+      <c r="A113" s="36" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>1032</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>187</v>
@@ -13923,7 +14113,7 @@
         <v>32</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P113" s="6" t="s">
         <v>31</v>
@@ -13934,24 +14124,24 @@
       <c r="R113" s="15">
         <v>1</v>
       </c>
-      <c r="S113" s="34"/>
-      <c r="T113" s="34"/>
+      <c r="S113" s="54"/>
+      <c r="T113" s="54"/>
       <c r="V113" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>255</v>
+      <c r="A114" s="36" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>1033</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>187</v>
@@ -13984,7 +14174,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="13" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P114" s="6" t="s">
         <v>31</v>
@@ -13995,24 +14185,24 @@
       <c r="R114" s="15">
         <v>1</v>
       </c>
-      <c r="S114" s="34"/>
-      <c r="T114" s="34"/>
+      <c r="S114" s="54"/>
+      <c r="T114" s="54"/>
       <c r="V114" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>259</v>
+      <c r="A115" s="36" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>1034</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>187</v>
@@ -14045,7 +14235,7 @@
         <v>32</v>
       </c>
       <c r="O115" s="13" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="P115" s="6" t="s">
         <v>31</v>
@@ -14056,24 +14246,24 @@
       <c r="R115" s="15">
         <v>1</v>
       </c>
-      <c r="S115" s="34"/>
-      <c r="T115" s="34"/>
+      <c r="S115" s="54"/>
+      <c r="T115" s="54"/>
       <c r="V115" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>264</v>
+      <c r="A116" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>1035</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>187</v>
@@ -14106,7 +14296,7 @@
         <v>32</v>
       </c>
       <c r="O116" s="13" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P116" s="6" t="s">
         <v>31</v>
@@ -14117,24 +14307,24 @@
       <c r="R116" s="15">
         <v>1</v>
       </c>
-      <c r="S116" s="34"/>
-      <c r="T116" s="34"/>
+      <c r="S116" s="54"/>
+      <c r="T116" s="54"/>
       <c r="V116" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>269</v>
+      <c r="A117" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>1036</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>187</v>
@@ -14167,7 +14357,7 @@
         <v>32</v>
       </c>
       <c r="O117" s="13" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P117" s="6" t="s">
         <v>31</v>
@@ -14178,24 +14368,24 @@
       <c r="R117" s="15">
         <v>1</v>
       </c>
-      <c r="S117" s="34"/>
-      <c r="T117" s="34"/>
+      <c r="S117" s="54"/>
+      <c r="T117" s="54"/>
       <c r="V117" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>273</v>
+      <c r="A118" s="36" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>1037</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>187</v>
@@ -14228,7 +14418,7 @@
         <v>32</v>
       </c>
       <c r="O118" s="13" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="P118" s="6" t="s">
         <v>31</v>
@@ -14239,24 +14429,24 @@
       <c r="R118" s="15">
         <v>1</v>
       </c>
-      <c r="S118" s="34"/>
-      <c r="T118" s="34"/>
+      <c r="S118" s="54"/>
+      <c r="T118" s="54"/>
       <c r="V118" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>278</v>
+      <c r="A119" s="36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>1038</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>187</v>
@@ -14289,7 +14479,7 @@
         <v>32</v>
       </c>
       <c r="O119" s="13" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="P119" s="6" t="s">
         <v>31</v>
@@ -14300,24 +14490,24 @@
       <c r="R119" s="15">
         <v>1</v>
       </c>
-      <c r="S119" s="34"/>
-      <c r="T119" s="34"/>
+      <c r="S119" s="54"/>
+      <c r="T119" s="54"/>
       <c r="V119" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>283</v>
+      <c r="A120" s="36" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>1039</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>187</v>
@@ -14350,7 +14540,7 @@
         <v>32</v>
       </c>
       <c r="O120" s="13" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="P120" s="6" t="s">
         <v>31</v>
@@ -14361,24 +14551,24 @@
       <c r="R120" s="15">
         <v>1</v>
       </c>
-      <c r="S120" s="34"/>
-      <c r="T120" s="34"/>
+      <c r="S120" s="54"/>
+      <c r="T120" s="54"/>
       <c r="V120" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>287</v>
+      <c r="A121" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>1040</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>187</v>
@@ -14411,7 +14601,7 @@
         <v>32</v>
       </c>
       <c r="O121" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="P121" s="6" t="s">
         <v>31</v>
@@ -14422,24 +14612,24 @@
       <c r="R121" s="15">
         <v>1</v>
       </c>
-      <c r="S121" s="34"/>
-      <c r="T121" s="34"/>
+      <c r="S121" s="54"/>
+      <c r="T121" s="54"/>
       <c r="V121" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>292</v>
+      <c r="A122" s="36" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>1041</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>187</v>
@@ -14472,7 +14662,7 @@
         <v>32</v>
       </c>
       <c r="O122" s="13" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="P122" s="6" t="s">
         <v>31</v>
@@ -14483,24 +14673,24 @@
       <c r="R122" s="15">
         <v>1</v>
       </c>
-      <c r="S122" s="34"/>
-      <c r="T122" s="34"/>
+      <c r="S122" s="54"/>
+      <c r="T122" s="54"/>
       <c r="V122" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>297</v>
+      <c r="A123" s="36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>1042</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>187</v>
@@ -14533,7 +14723,7 @@
         <v>32</v>
       </c>
       <c r="O123" s="13" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="P123" s="6" t="s">
         <v>31</v>
@@ -14544,117 +14734,1064 @@
       <c r="R123" s="15">
         <v>1</v>
       </c>
-      <c r="S123" s="34"/>
-      <c r="T123" s="34"/>
+      <c r="S123" s="54"/>
+      <c r="T123" s="54"/>
       <c r="V123" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="O124" s="12"/>
+      <c r="A124" s="36" t="s">
+        <v>998</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L124" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M124" s="12">
+        <v>1</v>
+      </c>
+      <c r="N124" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O124" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q124" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R124" s="15">
+        <v>1</v>
+      </c>
+      <c r="S124" s="34"/>
+      <c r="T124" s="34"/>
+      <c r="V124" s="12"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="O125" s="12"/>
+      <c r="A125" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L125" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M125" s="12">
+        <v>1</v>
+      </c>
+      <c r="N125" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O125" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q125" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R125" s="15">
+        <v>1</v>
+      </c>
+      <c r="S125" s="34"/>
+      <c r="T125" s="34"/>
+      <c r="V125" s="12"/>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B126" s="6" t="s">
-        <v>300</v>
-      </c>
+      <c r="A126" s="36" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J126" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L126" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M126" s="12">
+        <v>1</v>
+      </c>
+      <c r="N126" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O126" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="P126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q126" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R126" s="15">
+        <v>1</v>
+      </c>
+      <c r="S126" s="34"/>
+      <c r="T126" s="34"/>
+      <c r="V126" s="12"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A127" s="36" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>1046</v>
+      </c>
       <c r="C127" s="6" t="s">
-        <v>301</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L127" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M127" s="12">
+        <v>1</v>
+      </c>
+      <c r="N127" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O127" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R127" s="15">
+        <v>1</v>
+      </c>
+      <c r="S127" s="34"/>
+      <c r="T127" s="34"/>
+      <c r="V127" s="12"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A128" s="36" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>1047</v>
+      </c>
       <c r="C128" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D129" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D130" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J128" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L128" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M128" s="12">
+        <v>1</v>
+      </c>
+      <c r="N128" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O128" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R128" s="15">
+        <v>1</v>
+      </c>
+      <c r="S128" s="34"/>
+      <c r="T128" s="34"/>
+      <c r="V128" s="12"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A129" s="36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L129" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M129" s="12">
+        <v>1</v>
+      </c>
+      <c r="N129" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O129" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R129" s="15">
+        <v>1</v>
+      </c>
+      <c r="S129" s="34"/>
+      <c r="T129" s="34"/>
+      <c r="V129" s="12"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A130" s="36" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J130" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L130" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M130" s="12">
+        <v>1</v>
+      </c>
+      <c r="N130" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O130" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q130" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R130" s="15">
+        <v>1</v>
+      </c>
+      <c r="S130" s="34"/>
+      <c r="T130" s="34"/>
+      <c r="V130" s="12"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A131" s="36" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L131" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M131" s="12">
+        <v>1</v>
+      </c>
+      <c r="N131" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O131" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="P131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q131" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R131" s="15">
+        <v>1</v>
+      </c>
+      <c r="S131" s="34"/>
+      <c r="T131" s="34"/>
+      <c r="V131" s="12"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A132" s="36" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>1051</v>
+      </c>
       <c r="C132" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B135" s="6" t="s">
-        <v>306</v>
+        <v>258</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K132" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L132" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M132" s="12">
+        <v>1</v>
+      </c>
+      <c r="N132" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O132" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="P132" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q132" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R132" s="15">
+        <v>1</v>
+      </c>
+      <c r="S132" s="34"/>
+      <c r="T132" s="34"/>
+      <c r="V132" s="12"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A133" s="36" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L133" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M133" s="12">
+        <v>1</v>
+      </c>
+      <c r="N133" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O133" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q133" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R133" s="15">
+        <v>1</v>
+      </c>
+      <c r="S133" s="34"/>
+      <c r="T133" s="34"/>
+      <c r="V133" s="12"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A134" s="36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L134" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M134" s="12">
+        <v>1</v>
+      </c>
+      <c r="N134" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O134" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q134" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R134" s="15">
+        <v>1</v>
+      </c>
+      <c r="S134" s="34"/>
+      <c r="T134" s="34"/>
+      <c r="V134" s="12"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A135" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>1054</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L135" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M135" s="12">
+        <v>1</v>
+      </c>
+      <c r="N135" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O135" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="P135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q135" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R135" s="15">
+        <v>1</v>
+      </c>
+      <c r="S135" s="34"/>
+      <c r="T135" s="34"/>
+      <c r="V135" s="12"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A136" s="36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J136" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L136" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M136" s="12">
+        <v>1</v>
+      </c>
+      <c r="N136" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O136" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q136" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R136" s="15">
+        <v>1</v>
+      </c>
+      <c r="S136" s="34"/>
+      <c r="T136" s="34"/>
+      <c r="V136" s="12"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A137" s="36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L137" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M137" s="12">
+        <v>1</v>
+      </c>
+      <c r="N137" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O137" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="P137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q137" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R137" s="15">
+        <v>1</v>
+      </c>
+      <c r="S137" s="34"/>
+      <c r="T137" s="34"/>
+      <c r="V137" s="12"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A138" s="36" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>1057</v>
+      </c>
       <c r="C138" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D139" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
-      <c r="R139" s="6"/>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D140" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="R140" s="6"/>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D141" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="R141" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L138" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M138" s="12">
+        <v>1</v>
+      </c>
+      <c r="N138" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O138" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q138" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R138" s="15">
+        <v>1</v>
+      </c>
+      <c r="S138" s="34"/>
+      <c r="T138" s="34"/>
+      <c r="V138" s="12"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D139" s="9"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="18"/>
+      <c r="O139" s="13"/>
+      <c r="S139" s="34"/>
+      <c r="T139" s="34"/>
+      <c r="V139" s="12"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D140" s="9"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="18"/>
+      <c r="O140" s="13"/>
+      <c r="S140" s="34"/>
+      <c r="T140" s="34"/>
+      <c r="V140" s="12"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D141" s="9"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="18"/>
+      <c r="O141" s="13"/>
+      <c r="S141" s="34"/>
+      <c r="T141" s="34"/>
+      <c r="V141" s="12"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D142" s="9"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="18"/>
+      <c r="O142" s="13"/>
+      <c r="S142" s="34"/>
+      <c r="T142" s="34"/>
+      <c r="V142" s="12"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D143" s="9"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="18"/>
+      <c r="O143" s="13"/>
+      <c r="S143" s="34"/>
+      <c r="T143" s="34"/>
+      <c r="V143" s="12"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O144" s="12"/>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O145" s="12"/>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B146" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C147" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C148" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D149" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D150" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C152" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B155" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C158" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D159" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="R159" s="6"/>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D160" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="R160" s="6"/>
+    </row>
+    <row r="161" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D161" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="R161" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="S2:S19"/>
+    <mergeCell ref="T2:T19"/>
+    <mergeCell ref="S20:S37"/>
+    <mergeCell ref="T20:T37"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="T76:T77"/>
     <mergeCell ref="S105:S123"/>
     <mergeCell ref="T105:T123"/>
     <mergeCell ref="S82:S83"/>
@@ -14663,21 +15800,10 @@
     <mergeCell ref="T93:T95"/>
     <mergeCell ref="S96:S104"/>
     <mergeCell ref="T96:T104"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="S76:S77"/>
-    <mergeCell ref="T76:T77"/>
-    <mergeCell ref="S2:S19"/>
-    <mergeCell ref="T2:T19"/>
-    <mergeCell ref="S20:S37"/>
-    <mergeCell ref="T20:T37"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="T38:T40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14685,8 +15811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14696,18 +15822,18 @@
     <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
-        <v>844</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>724</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>723</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>915</v>
+    <row r="1" spans="1:4" s="38" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -14715,57 +15841,57 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="C3" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="C4" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D4" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="C5" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D5" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="C6" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14773,57 +15899,57 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="D8" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="C9" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D9" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="C10" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D10" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="C11" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D11" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="C12" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D12" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -14831,112 +15957,112 @@
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="D14" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="C15" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D15" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="C16" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D16" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="C17" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D17" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="C18" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D18" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="D19" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="C20" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D20" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="C21" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D21" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="C22" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D22" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="C23" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D23" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -14944,57 +16070,57 @@
         <v>4</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="D25" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="C26" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D26" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="C27" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D27" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="C28" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D28" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="C29" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D29" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -15002,46 +16128,46 @@
         <v>5</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="D34" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -15049,35 +16175,35 @@
         <v>6</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -15085,35 +16211,35 @@
         <v>7</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -15121,35 +16247,35 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>940</v>
+        <v>922</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="C48" t="s">
         <v>133</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -15157,82 +16283,82 @@
         <v>9</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>149</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="13" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
-      <c r="B56" s="53" t="s">
-        <v>717</v>
+      <c r="B56" s="51" t="s">
+        <v>699</v>
       </c>
       <c r="C56" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D56" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="53" t="s">
-        <v>960</v>
+      <c r="B57" s="51" t="s">
+        <v>942</v>
       </c>
       <c r="C57" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D57" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="53" t="s">
-        <v>916</v>
+      <c r="B58" s="51" t="s">
+        <v>898</v>
       </c>
       <c r="C58" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D58" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="53" t="s">
-        <v>961</v>
+      <c r="B59" s="51" t="s">
+        <v>943</v>
       </c>
       <c r="C59" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D59" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="53" t="s">
-        <v>962</v>
+      <c r="B60" s="51" t="s">
+        <v>944</v>
       </c>
       <c r="C60" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D60" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -15240,46 +16366,46 @@
         <v>11</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="C62" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D62" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="C63" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D63" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="C64" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D64" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="C65" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D65" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -15287,46 +16413,46 @@
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="C67" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D67" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="C68" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D68" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="C69" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D69" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="C70" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D70" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -15339,8 +16465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15357,7 +16483,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -15369,273 +16495,273 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="28" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="26" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="26" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="26" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="26" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="26" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
       <c r="B6" s="26" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="26" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="26" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="26" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="26" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="26" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="26" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="26" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="26" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="26" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
       <c r="B11" s="26" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="26" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>350</v>
-      </c>
       <c r="D12" s="31" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="26" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="26" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="26" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="26" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="26" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="26" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="26" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="26" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="26" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="30" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="27"/>
@@ -15646,17 +16772,17 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="30" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="27"/>
@@ -15667,17 +16793,17 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="30" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="27"/>
@@ -15688,17 +16814,17 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="30" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="27"/>
@@ -15709,17 +16835,17 @@
     </row>
     <row r="21" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="30" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="27"/>
@@ -15730,17 +16856,17 @@
     </row>
     <row r="22" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="30" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="27"/>
@@ -15751,17 +16877,17 @@
     </row>
     <row r="23" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="30" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="27"/>
@@ -15772,17 +16898,17 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="30" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="27"/>
@@ -15793,17 +16919,17 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="30" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="27"/>
@@ -15814,17 +16940,17 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="30" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="27"/>
@@ -15835,17 +16961,17 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="26" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="30" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="27"/>
@@ -15856,17 +16982,17 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="30" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="27"/>
@@ -15877,17 +17003,17 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="30" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="27"/>
@@ -15898,17 +17024,17 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="30" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="27"/>
@@ -15919,17 +17045,17 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="30" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="27"/>
@@ -15940,17 +17066,17 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="30" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="27"/>
@@ -15961,273 +17087,273 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="30" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="30" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="26" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="30" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="30" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="30" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="30" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="30" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="30" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="30" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="30" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="26" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="30" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="30" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="26" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="30" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="26" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="30" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="G46" s="30"/>
     </row>
     <row r="47" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="30" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="G47" s="30"/>
     </row>
     <row r="48" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="26" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="30" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="G48" s="30"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="26" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="30" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="27"/>
@@ -16236,17 +17362,17 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="26" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="30" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="27"/>
@@ -16255,17 +17381,17 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="26" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51" s="30" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="G51" s="30"/>
       <c r="H51" s="27"/>
@@ -16274,17 +17400,17 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="30" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="G52" s="30"/>
       <c r="H52" s="27"/>
@@ -16293,17 +17419,17 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="26" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="30" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="G53" s="30"/>
       <c r="H53" s="27"/>
@@ -16312,17 +17438,17 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="30" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="G54" s="30"/>
       <c r="H54" s="27"/>
@@ -16331,17 +17457,17 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="30" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="G55" s="30"/>
       <c r="H55" s="27"/>
@@ -16350,17 +17476,17 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="26" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="30" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="G56" s="30"/>
       <c r="H56" s="27"/>
@@ -16369,17 +17495,17 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="26" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="E57" s="27"/>
       <c r="F57" s="30" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="G57" s="30"/>
       <c r="H57" s="27"/>
@@ -16388,17 +17514,17 @@
     </row>
     <row r="58" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="26" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="30" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="G58" s="30"/>
       <c r="H58" s="27"/>
@@ -16407,17 +17533,17 @@
     </row>
     <row r="59" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="26" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="30" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="G59" s="30"/>
       <c r="H59" s="27"/>
@@ -16426,17 +17552,17 @@
     </row>
     <row r="60" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="30" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G60" s="30"/>
       <c r="H60" s="27"/>
@@ -16445,17 +17571,17 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="26" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="26" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -16464,17 +17590,17 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="26" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="26" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -16483,17 +17609,17 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="26" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="26" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -16502,17 +17628,17 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="26" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="26" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -16522,17 +17648,17 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
       <c r="B65" s="26" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="26" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
@@ -16540,24 +17666,24 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="27"/>
       <c r="B66" s="26" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="26" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -16570,67 +17696,67 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="27"/>
       <c r="B69" s="28" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
       <c r="B70" s="30" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="26" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
       <c r="B71" s="30"/>
       <c r="C71" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="26" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -16646,43 +17772,43 @@
     <row r="73" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="30" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="26" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
       <c r="B74" s="30"/>
       <c r="C74" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="26" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -16698,43 +17824,43 @@
     <row r="76" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
       <c r="B76" s="30" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="26" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
       <c r="B77" s="30"/>
       <c r="C77" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="D77" s="31" t="s">
         <v>548</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>566</v>
-      </c>
       <c r="E77" s="32" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="26" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -16750,43 +17876,43 @@
     <row r="79" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
       <c r="B79" s="30" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="26" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
       <c r="B80" s="30"/>
       <c r="C80" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="26" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
@@ -16800,42 +17926,42 @@
     </row>
     <row r="82" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="30" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="26" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="27"/>
       <c r="C83" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="26" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
@@ -16849,42 +17975,42 @@
     </row>
     <row r="85" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="30" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="26" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="30"/>
       <c r="C86" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="26" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
@@ -16898,42 +18024,42 @@
     </row>
     <row r="88" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="30" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="26" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="30"/>
       <c r="C89" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="F89" s="27"/>
       <c r="G89" s="26" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
@@ -16947,42 +18073,42 @@
     </row>
     <row r="91" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="26" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="30"/>
       <c r="C92" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="F92" s="27"/>
       <c r="G92" s="26" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
@@ -16996,42 +18122,42 @@
     </row>
     <row r="94" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="30" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="26" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="27"/>
       <c r="C95" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="26" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
@@ -17045,42 +18171,42 @@
     </row>
     <row r="97" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="30" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="26" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="30"/>
       <c r="C98" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="26" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
@@ -17094,42 +18220,42 @@
     </row>
     <row r="100" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="F100" s="27"/>
       <c r="G100" s="26" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="30"/>
       <c r="C101" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="26" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
@@ -17143,82 +18269,82 @@
     </row>
     <row r="103" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="26" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="H103" s="30" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="30"/>
       <c r="C104" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="26" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="H104" s="30" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="30" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="30"/>
       <c r="C107" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="26" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
@@ -17232,87 +18358,87 @@
     </row>
     <row r="109" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="30" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="26" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="H109" s="26" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="30"/>
       <c r="C110" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="26" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="H110" s="30" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="30" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="F111" s="30"/>
       <c r="G111" s="26" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="H111" s="30" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="30"/>
       <c r="C112" s="26" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="F112" s="30"/>
       <c r="G112" s="26" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="B113" s="30"/>
       <c r="C113" s="27"/>
@@ -17325,133 +18451,133 @@
     <row r="114" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="27"/>
       <c r="B114" s="28" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="F114" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="G114" s="36"/>
+        <v>300</v>
+      </c>
+      <c r="F114" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="G114" s="56"/>
       <c r="H114" s="28" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="27"/>
       <c r="B115" s="30" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E115" s="27"/>
       <c r="F115" s="26" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="G115" s="27"/>
       <c r="H115" s="26" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="26" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="E116" s="27"/>
       <c r="F116" s="26" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="G116" s="27"/>
       <c r="H116" s="30" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
       <c r="C117" s="26" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E117" s="27"/>
       <c r="F117" s="26" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="G117" s="27"/>
       <c r="H117" s="26" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="27"/>
       <c r="B118" s="27"/>
       <c r="C118" s="26" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="E118" s="27"/>
       <c r="F118" s="26" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="G118" s="27"/>
       <c r="H118" s="26" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="27"/>
       <c r="B119" s="27"/>
       <c r="C119" s="33" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="E119" s="27"/>
       <c r="F119" s="26" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="G119" s="27"/>
       <c r="H119" s="26" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
       <c r="C120" s="33" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="E120" s="27"/>
       <c r="F120" s="26" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="G120" s="27"/>
       <c r="H120" s="26" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -17467,95 +18593,95 @@
     <row r="122" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="27"/>
       <c r="B122" s="30" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="E122" s="27"/>
       <c r="F122" s="26" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="G122" s="27"/>
       <c r="H122" s="26" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
       <c r="C123" s="26" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="E123" s="27"/>
       <c r="F123" s="26" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="G123" s="27"/>
       <c r="H123" s="26" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="27"/>
       <c r="B124" s="30"/>
       <c r="C124" s="26" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="E124" s="27"/>
       <c r="F124" s="26" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="G124" s="27"/>
       <c r="H124" s="26" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="27"/>
       <c r="B125" s="30"/>
       <c r="C125" s="26" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="E125" s="27"/>
       <c r="F125" s="26" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="G125" s="27"/>
       <c r="H125" s="26" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="27"/>
       <c r="B126" s="30" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E126" s="27"/>
       <c r="F126" s="26" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="G126" s="27"/>
       <c r="H126" s="26" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">

--- a/gd/副本内容设计/通用技能设计.xlsx
+++ b/gd/副本内容设计/通用技能设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Way4games\策划文档\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="1067">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3316,10 +3316,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>attackFireCut</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>attackEarthCut</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3437,30 +3433,6 @@
   </si>
   <si>
     <t>attackWaterStab</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackMetalSmashp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackPlantSmashp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackWaterSmashp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackFireSmashp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackEarthSmashp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackMetalSmashp</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3872,10 +3844,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>magicFireBall</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>圆片范围缩小至“最大范围”小于怪的高度</t>
   </si>
   <si>
@@ -4514,6 +4482,71 @@
   <si>
     <t>法术暗强Dot</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackFireCut</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicCureSlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackMetalStab</t>
+  </si>
+  <si>
+    <t>attackPlantStab</t>
+  </si>
+  <si>
+    <t>attackWaterStab</t>
+  </si>
+  <si>
+    <t>attackFireStab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackEarthStab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireBall</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthBallp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthBallp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthBallp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotFire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonBuffMagic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantColumnp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4680,7 +4713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4833,12 +4866,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4847,6 +4874,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8123,10 +8162,10 @@
   <dimension ref="A1:AF161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomRight" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8269,10 +8308,10 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="52" t="s">
         <v>25</v>
       </c>
       <c r="U2" s="6" t="s">
@@ -8329,8 +8368,8 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
       <c r="V3" s="12">
         <v>20</v>
       </c>
@@ -8382,8 +8421,8 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
       <c r="V4" s="12">
         <v>20</v>
       </c>
@@ -8435,8 +8474,8 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -8486,8 +8525,8 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -8537,8 +8576,8 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
       <c r="V7" s="12"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -8588,8 +8627,8 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
       <c r="V8" s="12"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -8639,8 +8678,8 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
       <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -8690,8 +8729,8 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
       <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -8741,8 +8780,8 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="17"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -8792,8 +8831,8 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="17"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
       <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -8828,7 +8867,7 @@
         <v>31</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>834</v>
+        <v>1050</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>25</v>
@@ -8843,8 +8882,8 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
       <c r="V13" s="12"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -8879,7 +8918,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>22</v>
@@ -8894,8 +8933,8 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
       <c r="V14" s="12"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -8930,7 +8969,7 @@
         <v>31</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>25</v>
@@ -8945,8 +8984,8 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
       <c r="V15" s="12"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -8981,7 +9020,7 @@
         <v>31</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>25</v>
@@ -8996,8 +9035,8 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
       <c r="V16" s="12"/>
     </row>
     <row r="17" spans="1:22" s="39" customFormat="1" x14ac:dyDescent="0.3">
@@ -9044,8 +9083,8 @@
         <v>1</v>
       </c>
       <c r="R17" s="45"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
       <c r="V17" s="43">
         <v>20</v>
       </c>
@@ -9094,8 +9133,8 @@
         <v>1</v>
       </c>
       <c r="R18" s="45"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
       <c r="V18" s="43">
         <v>20</v>
       </c>
@@ -9144,8 +9183,8 @@
         <v>1</v>
       </c>
       <c r="R19" s="45"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
       <c r="V19" s="43">
         <v>20</v>
       </c>
@@ -9182,7 +9221,7 @@
         <v>31</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>57</v>
@@ -9197,10 +9236,10 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="17"/>
-      <c r="S20" s="54" t="s">
+      <c r="S20" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="54" t="s">
+      <c r="T20" s="52" t="s">
         <v>57</v>
       </c>
       <c r="V20" s="12">
@@ -9239,7 +9278,7 @@
         <v>31</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>57</v>
@@ -9254,8 +9293,8 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="17"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
       <c r="V21" s="12">
         <v>20</v>
       </c>
@@ -9292,7 +9331,7 @@
         <v>31</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>57</v>
@@ -9307,8 +9346,8 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="17"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
       <c r="V22" s="12">
         <v>20</v>
       </c>
@@ -9345,7 +9384,7 @@
         <v>31</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>57</v>
@@ -9360,8 +9399,8 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="17"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
       <c r="V23" s="12"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -9396,7 +9435,7 @@
         <v>31</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>57</v>
@@ -9411,8 +9450,8 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
       <c r="V24" s="12"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -9447,7 +9486,7 @@
         <v>31</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>57</v>
@@ -9462,8 +9501,8 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="17"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
       <c r="V25" s="12"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -9498,7 +9537,7 @@
         <v>31</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>57</v>
@@ -9513,8 +9552,8 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
       <c r="V26" s="12"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -9549,7 +9588,7 @@
         <v>31</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>57</v>
@@ -9564,8 +9603,8 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
       <c r="V27" s="12"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -9600,7 +9639,7 @@
         <v>31</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>57</v>
@@ -9615,8 +9654,8 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="17"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
       <c r="V28" s="12"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -9651,7 +9690,7 @@
         <v>31</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>57</v>
@@ -9666,8 +9705,8 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="17"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
       <c r="V29" s="12"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -9702,7 +9741,7 @@
         <v>31</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L30" s="14" t="s">
         <v>57</v>
@@ -9717,8 +9756,8 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="17"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
       <c r="V30" s="12"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -9753,7 +9792,7 @@
         <v>31</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>57</v>
@@ -9768,8 +9807,8 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="17"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
       <c r="V31" s="12"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -9804,7 +9843,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>57</v>
@@ -9819,8 +9858,8 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="17"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
       <c r="V32" s="12"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
@@ -9855,7 +9894,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>57</v>
@@ -9870,8 +9909,8 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="17"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
       <c r="V33" s="12"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
@@ -9906,7 +9945,7 @@
         <v>31</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>57</v>
@@ -9921,8 +9960,8 @@
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="17"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
       <c r="V34" s="12"/>
     </row>
     <row r="35" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.3">
@@ -9969,8 +10008,8 @@
         <v>1</v>
       </c>
       <c r="R35" s="45"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
       <c r="V35" s="43">
         <v>20</v>
       </c>
@@ -10020,8 +10059,8 @@
         <v>1</v>
       </c>
       <c r="R36" s="45"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
       <c r="V36" s="43">
         <v>20</v>
       </c>
@@ -10071,8 +10110,8 @@
         <v>1</v>
       </c>
       <c r="R37" s="45"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
       <c r="V37" s="43">
         <v>20</v>
       </c>
@@ -10099,20 +10138,20 @@
       <c r="G38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="I38" s="20" t="s">
+      <c r="H38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="L38" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J38" s="18">
-        <v>1</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M38" s="14" t="s">
         <v>32</v>
@@ -10124,10 +10163,10 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
-      <c r="S38" s="54" t="s">
+      <c r="S38" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="T38" s="54" t="s">
+      <c r="T38" s="52" t="s">
         <v>67</v>
       </c>
       <c r="V38" s="12">
@@ -10156,20 +10195,20 @@
       <c r="G39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="I39" s="20" t="s">
+      <c r="H39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="L39" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J39" s="18">
-        <v>1</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M39" s="14" t="s">
         <v>32</v>
@@ -10181,8 +10220,8 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="17"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
       <c r="V39" s="12">
         <v>20</v>
       </c>
@@ -10209,20 +10248,20 @@
       <c r="G40" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="I40" s="20" t="s">
+      <c r="H40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="L40" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J40" s="18">
-        <v>1</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M40" s="14" t="s">
         <v>32</v>
@@ -10234,8 +10273,8 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="17"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
       <c r="V40" s="12">
         <v>20</v>
       </c>
@@ -10262,20 +10301,20 @@
       <c r="G41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="I41" s="20" t="s">
+      <c r="H41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="L41" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J41" s="18">
-        <v>1</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M41" s="14" t="s">
         <v>32</v>
@@ -10313,20 +10352,20 @@
       <c r="G42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="I42" s="20" t="s">
+      <c r="H42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="L42" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J42" s="18">
-        <v>1</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M42" s="14" t="s">
         <v>32</v>
@@ -10364,20 +10403,20 @@
       <c r="G43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="I43" s="20" t="s">
+      <c r="H43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="L43" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J43" s="18">
-        <v>1</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>32</v>
@@ -10415,20 +10454,20 @@
       <c r="G44" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="I44" s="20" t="s">
+      <c r="H44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="L44" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J44" s="18">
-        <v>1</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M44" s="14" t="s">
         <v>32</v>
@@ -10466,20 +10505,20 @@
       <c r="G45" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>867</v>
-      </c>
-      <c r="I45" s="20" t="s">
+      <c r="H45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="L45" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J45" s="18">
-        <v>1</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M45" s="14" t="s">
         <v>32</v>
@@ -10517,20 +10556,20 @@
       <c r="G46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>867</v>
-      </c>
-      <c r="I46" s="20" t="s">
+      <c r="H46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="L46" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J46" s="18">
-        <v>1</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>32</v>
@@ -10568,20 +10607,20 @@
       <c r="G47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="I47" s="20" t="s">
+      <c r="H47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="L47" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J47" s="18">
-        <v>1</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M47" s="14" t="s">
         <v>32</v>
@@ -10619,20 +10658,20 @@
       <c r="G48" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="I48" s="20" t="s">
+      <c r="H48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="L48" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J48" s="18">
-        <v>1</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M48" s="14" t="s">
         <v>32</v>
@@ -10670,20 +10709,20 @@
       <c r="G49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="I49" s="20" t="s">
+      <c r="H49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="L49" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J49" s="18">
-        <v>1</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M49" s="14" t="s">
         <v>32</v>
@@ -10721,20 +10760,20 @@
       <c r="G50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="I50" s="20" t="s">
+      <c r="H50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="L50" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J50" s="18">
-        <v>1</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M50" s="14" t="s">
         <v>32</v>
@@ -10772,20 +10811,20 @@
       <c r="G51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="I51" s="20" t="s">
+      <c r="H51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="L51" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J51" s="18">
-        <v>1</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M51" s="14" t="s">
         <v>32</v>
@@ -10823,20 +10862,20 @@
       <c r="G52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="I52" s="20" t="s">
+      <c r="H52" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="L52" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="J52" s="18">
-        <v>1</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="M52" s="14" t="s">
         <v>32</v>
@@ -10854,10 +10893,10 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>54</v>
@@ -10880,11 +10919,11 @@
       <c r="I53" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L53" s="14" t="s">
         <v>22</v>
@@ -10905,10 +10944,10 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>54</v>
@@ -10935,7 +10974,7 @@
         <v>21</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L54" s="14" t="s">
         <v>22</v>
@@ -10956,10 +10995,10 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>54</v>
@@ -10986,7 +11025,7 @@
         <v>21</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>22</v>
@@ -11007,10 +11046,10 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>54</v>
@@ -11037,7 +11076,7 @@
         <v>21</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L56" s="14" t="s">
         <v>22</v>
@@ -11058,10 +11097,10 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>54</v>
@@ -11088,7 +11127,7 @@
         <v>21</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L57" s="14" t="s">
         <v>22</v>
@@ -11130,13 +11169,13 @@
         <v>73</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J58" s="18">
-        <v>1</v>
+      <c r="J58" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>829</v>
@@ -11154,10 +11193,10 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
-      <c r="S58" s="54" t="s">
+      <c r="S58" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="T58" s="52" t="s">
         <v>79</v>
       </c>
       <c r="V58" s="12">
@@ -11187,13 +11226,13 @@
         <v>73</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J59" s="18">
-        <v>1</v>
+      <c r="J59" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>829</v>
@@ -11211,8 +11250,8 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
       <c r="V59" s="12">
         <v>20</v>
       </c>
@@ -11240,13 +11279,13 @@
         <v>73</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J60" s="18">
-        <v>1</v>
+      <c r="J60" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="K60" s="13" t="s">
         <v>829</v>
@@ -11297,7 +11336,7 @@
         <v>73</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>75</v>
@@ -11306,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L61" s="13" t="s">
         <v>824</v>
@@ -11348,7 +11387,7 @@
         <v>73</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>75</v>
@@ -11357,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L62" s="13" t="s">
         <v>825</v>
@@ -11399,7 +11438,7 @@
         <v>73</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>75</v>
@@ -11408,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L63" s="13" t="s">
         <v>86</v>
@@ -11429,10 +11468,10 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>90</v>
@@ -11459,7 +11498,7 @@
         <v>31</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="L64" s="14" t="s">
         <v>25</v>
@@ -11467,8 +11506,8 @@
       <c r="M64" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="15">
-        <v>1</v>
+      <c r="N64" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
@@ -11483,10 +11522,10 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>95</v>
@@ -11513,7 +11552,7 @@
         <v>31</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="L65" s="14" t="s">
         <v>25</v>
@@ -11521,17 +11560,17 @@
       <c r="M65" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N65" s="15">
-        <v>1</v>
+      <c r="N65" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
-      <c r="S65" s="54" t="s">
+      <c r="S65" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="T65" s="54" t="s">
+      <c r="T65" s="52" t="s">
         <v>99</v>
       </c>
       <c r="V65" s="12">
@@ -11540,10 +11579,10 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>100</v>
@@ -11570,7 +11609,7 @@
         <v>31</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="L66" s="14" t="s">
         <v>25</v>
@@ -11578,25 +11617,25 @@
       <c r="M66" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N66" s="15">
-        <v>1</v>
+      <c r="N66" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
       <c r="V66" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>90</v>
@@ -11614,7 +11653,7 @@
         <v>93</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>894</v>
+        <v>1066</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>104</v>
@@ -11623,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="L67" s="12" t="s">
         <v>31</v>
@@ -11644,10 +11683,10 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>95</v>
@@ -11665,7 +11704,7 @@
         <v>93</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>104</v>
@@ -11674,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="L68" s="12" t="s">
         <v>31</v>
@@ -11695,10 +11734,10 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>100</v>
@@ -11716,7 +11755,7 @@
         <v>93</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>104</v>
@@ -11725,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="L69" s="12" t="s">
         <v>31</v>
@@ -11746,10 +11785,10 @@
     </row>
     <row r="70" spans="1:22" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>105</v>
@@ -11767,16 +11806,16 @@
         <v>108</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I70" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J70" s="18">
-        <v>1</v>
+      <c r="J70" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="L70" s="12" t="s">
         <v>109</v>
@@ -11803,10 +11842,10 @@
     </row>
     <row r="71" spans="1:22" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>112</v>
@@ -11824,16 +11863,16 @@
         <v>108</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J71" s="18">
-        <v>1</v>
+      <c r="J71" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="L71" s="12" t="s">
         <v>109</v>
@@ -11860,10 +11899,10 @@
     </row>
     <row r="72" spans="1:22" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>119</v>
@@ -11881,16 +11920,16 @@
         <v>108</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J72" s="18">
-        <v>1</v>
+      <c r="J72" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="L72" s="12" t="s">
         <v>109</v>
@@ -11917,10 +11956,10 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>105</v>
@@ -11938,7 +11977,7 @@
         <v>108</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>115</v>
@@ -11947,10 +11986,10 @@
         <v>1</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>109</v>
+        <v>1058</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>1058</v>
       </c>
       <c r="M73" s="14" t="s">
         <v>32</v>
@@ -11968,10 +12007,10 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>112</v>
@@ -11989,7 +12028,7 @@
         <v>108</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>115</v>
@@ -11998,10 +12037,10 @@
         <v>1</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>109</v>
+        <v>1059</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>1059</v>
       </c>
       <c r="M74" s="14" t="s">
         <v>32</v>
@@ -12019,10 +12058,10 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>119</v>
@@ -12040,7 +12079,7 @@
         <v>108</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="I75" s="13" t="s">
         <v>115</v>
@@ -12049,10 +12088,10 @@
         <v>1</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>109</v>
+        <v>1060</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>1060</v>
       </c>
       <c r="M75" s="14" t="s">
         <v>32</v>
@@ -12070,10 +12109,10 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>125</v>
@@ -12091,7 +12130,7 @@
         <v>128</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>129</v>
@@ -12100,7 +12139,7 @@
         <v>32</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>925</v>
+        <v>1057</v>
       </c>
       <c r="L76" s="12" t="s">
         <v>130</v>
@@ -12115,10 +12154,10 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="17"/>
-      <c r="S76" s="54" t="s">
+      <c r="S76" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T76" s="54" t="s">
+      <c r="T76" s="52" t="s">
         <v>132</v>
       </c>
       <c r="V76" s="12">
@@ -12127,10 +12166,10 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>134</v>
@@ -12148,7 +12187,7 @@
         <v>128</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>129</v>
@@ -12157,7 +12196,7 @@
         <v>32</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="L77" s="12" t="s">
         <v>130</v>
@@ -12172,18 +12211,18 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="17"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
+      <c r="S77" s="52"/>
+      <c r="T77" s="52"/>
       <c r="V77" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>140</v>
@@ -12201,7 +12240,7 @@
         <v>128</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>129</v>
@@ -12210,7 +12249,7 @@
         <v>32</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="L78" s="12" t="s">
         <v>130</v>
@@ -12237,10 +12276,10 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>125</v>
@@ -12258,7 +12297,7 @@
         <v>128</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>142</v>
@@ -12266,8 +12305,8 @@
       <c r="J79" s="18">
         <v>1</v>
       </c>
-      <c r="K79" s="13" t="s">
-        <v>925</v>
+      <c r="K79" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="L79" s="12" t="s">
         <v>143</v>
@@ -12286,10 +12325,10 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>134</v>
@@ -12307,7 +12346,7 @@
         <v>128</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>142</v>
@@ -12315,8 +12354,8 @@
       <c r="J80" s="18">
         <v>1</v>
       </c>
-      <c r="K80" s="13" t="s">
-        <v>926</v>
+      <c r="K80" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="L80" s="12" t="s">
         <v>143</v>
@@ -12335,10 +12374,10 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>140</v>
@@ -12356,7 +12395,7 @@
         <v>128</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>142</v>
@@ -12364,8 +12403,8 @@
       <c r="J81" s="18">
         <v>1</v>
       </c>
-      <c r="K81" s="13" t="s">
-        <v>926</v>
+      <c r="K81" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="L81" s="12" t="s">
         <v>143</v>
@@ -12384,10 +12423,10 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>145</v>
@@ -12405,19 +12444,19 @@
         <v>148</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>143</v>
+        <v>1061</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J82" s="18" t="s">
         <v>143</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="L82" s="13" t="s">
-        <v>150</v>
+        <v>933</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M82" s="14" t="s">
         <v>139</v>
@@ -12429,10 +12468,10 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="17"/>
-      <c r="S82" s="55" t="s">
+      <c r="S82" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="T82" s="54" t="s">
+      <c r="T82" s="52" t="s">
         <v>152</v>
       </c>
       <c r="V82" s="12">
@@ -12441,10 +12480,10 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>153</v>
@@ -12462,19 +12501,19 @@
         <v>148</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>143</v>
+        <v>1062</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J83" s="18" t="s">
         <v>143</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="L83" s="13" t="s">
-        <v>150</v>
+        <v>933</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M83" s="14" t="s">
         <v>32</v>
@@ -12486,18 +12525,18 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="17"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="54"/>
+      <c r="S83" s="53"/>
+      <c r="T83" s="52"/>
       <c r="V83" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>156</v>
@@ -12515,19 +12554,19 @@
         <v>148</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>31</v>
+        <v>1063</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="J84" s="18" t="s">
         <v>31</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="L84" s="13" t="s">
-        <v>150</v>
+        <v>933</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M84" s="14" t="s">
         <v>32</v>
@@ -12551,10 +12590,10 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>145</v>
@@ -12572,19 +12611,19 @@
         <v>148</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="J85" s="18">
         <v>1</v>
       </c>
-      <c r="K85" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="L85" s="13" t="s">
-        <v>150</v>
+      <c r="K85" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M85" s="14" t="s">
         <v>32</v>
@@ -12602,10 +12641,10 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>153</v>
@@ -12623,19 +12662,19 @@
         <v>148</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="J86" s="18">
         <v>1</v>
       </c>
-      <c r="K86" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>150</v>
+      <c r="K86" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M86" s="14" t="s">
         <v>32</v>
@@ -12653,10 +12692,10 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>156</v>
@@ -12674,19 +12713,19 @@
         <v>148</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="J87" s="18">
         <v>1</v>
       </c>
-      <c r="K87" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="L87" s="13" t="s">
-        <v>150</v>
+      <c r="K87" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M87" s="14" t="s">
         <v>32</v>
@@ -12702,26 +12741,26 @@
       <c r="T87" s="25"/>
       <c r="V87" s="12"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A88" s="36" t="s">
+    <row r="88" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="35" t="s">
         <v>699</v>
       </c>
-      <c r="B88" s="36" t="s">
-        <v>968</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="B88" s="35" t="s">
+        <v>960</v>
+      </c>
+      <c r="C88" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="19" t="s">
         <v>187</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H88" s="13" t="s">
@@ -12733,46 +12772,43 @@
       <c r="J88" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K88" s="51" t="s">
-        <v>699</v>
-      </c>
-      <c r="L88" s="24" t="s">
+      <c r="K88" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L88" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M88" s="52" t="s">
+      <c r="M88" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N88" s="53">
+      <c r="N88" s="18">
         <v>1</v>
       </c>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="49"/>
-      <c r="T88" s="25"/>
-      <c r="V88" s="12"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A89" s="36" t="s">
-        <v>942</v>
-      </c>
-      <c r="B89" s="36" t="s">
-        <v>969</v>
-      </c>
-      <c r="C89" s="6" t="s">
+      <c r="R88" s="56"/>
+      <c r="S88" s="57"/>
+      <c r="T88" s="58"/>
+      <c r="V88" s="13"/>
+    </row>
+    <row r="89" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35" t="s">
+        <v>934</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>961</v>
+      </c>
+      <c r="C89" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="19" t="s">
         <v>187</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="18" t="s">
         <v>93</v>
       </c>
       <c r="H89" s="13" t="s">
@@ -12784,40 +12820,37 @@
       <c r="J89" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K89" s="51" t="s">
-        <v>942</v>
-      </c>
-      <c r="L89" s="52" t="s">
+      <c r="K89" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L89" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M89" s="52" t="s">
+      <c r="M89" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N89" s="53">
+      <c r="N89" s="18">
         <v>1</v>
       </c>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="49"/>
-      <c r="T89" s="25"/>
-      <c r="V89" s="12"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A90" s="36" t="s">
-        <v>898</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>970</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="R89" s="56"/>
+      <c r="S89" s="57"/>
+      <c r="T89" s="58"/>
+      <c r="V89" s="13"/>
+    </row>
+    <row r="90" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="35" t="s">
+        <v>891</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>962</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="19" t="s">
         <v>187</v>
       </c>
       <c r="F90" s="10" t="s">
@@ -12835,40 +12868,37 @@
       <c r="J90" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K90" s="51" t="s">
-        <v>898</v>
-      </c>
-      <c r="L90" s="51" t="s">
+      <c r="K90" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L90" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M90" s="52" t="s">
+      <c r="M90" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="53">
+      <c r="N90" s="18">
         <v>1</v>
       </c>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="49"/>
-      <c r="T90" s="25"/>
-      <c r="V90" s="12"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A91" s="36" t="s">
-        <v>943</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>971</v>
-      </c>
-      <c r="C91" s="6" t="s">
+      <c r="R90" s="56"/>
+      <c r="S90" s="57"/>
+      <c r="T90" s="58"/>
+      <c r="V90" s="13"/>
+    </row>
+    <row r="91" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="35" t="s">
+        <v>935</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>963</v>
+      </c>
+      <c r="C91" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="19" t="s">
         <v>187</v>
       </c>
       <c r="F91" s="10" t="s">
@@ -12886,46 +12916,43 @@
       <c r="J91" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K91" s="51" t="s">
-        <v>943</v>
-      </c>
-      <c r="L91" s="51" t="s">
+      <c r="K91" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L91" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M91" s="52" t="s">
+      <c r="M91" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N91" s="53">
+      <c r="N91" s="18">
         <v>1</v>
       </c>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="49"/>
-      <c r="T91" s="25"/>
-      <c r="V91" s="12"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A92" s="36" t="s">
-        <v>944</v>
-      </c>
-      <c r="B92" s="36" t="s">
-        <v>972</v>
-      </c>
-      <c r="C92" s="6" t="s">
+      <c r="R91" s="56"/>
+      <c r="S91" s="57"/>
+      <c r="T91" s="58"/>
+      <c r="V91" s="13"/>
+    </row>
+    <row r="92" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="35" t="s">
+        <v>936</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>964</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="19" t="s">
         <v>187</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="18" t="s">
         <v>148</v>
       </c>
       <c r="H92" s="13" t="s">
@@ -12937,25 +12964,22 @@
       <c r="J92" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K92" s="51" t="s">
-        <v>944</v>
-      </c>
-      <c r="L92" s="24" t="s">
+      <c r="K92" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L92" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="M92" s="52" t="s">
+      <c r="M92" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N92" s="53">
+      <c r="N92" s="18">
         <v>1</v>
       </c>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="49"/>
-      <c r="T92" s="25"/>
-      <c r="V92" s="12"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="57"/>
+      <c r="T92" s="58"/>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
@@ -13004,10 +13028,10 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="16"/>
       <c r="R93" s="17"/>
-      <c r="S93" s="54" t="s">
+      <c r="S93" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="T93" s="54" t="s">
+      <c r="T93" s="52" t="s">
         <v>169</v>
       </c>
       <c r="V93" s="12">
@@ -13061,8 +13085,8 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="16"/>
       <c r="R94" s="17"/>
-      <c r="S94" s="54"/>
-      <c r="T94" s="54"/>
+      <c r="S94" s="52"/>
+      <c r="T94" s="52"/>
       <c r="V94" s="12">
         <v>20</v>
       </c>
@@ -13099,7 +13123,7 @@
         <v>31</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>166</v>
+        <v>1051</v>
       </c>
       <c r="L95" s="12" t="s">
         <v>169</v>
@@ -13114,15 +13138,15 @@
       <c r="P95" s="16"/>
       <c r="Q95" s="16"/>
       <c r="R95" s="17"/>
-      <c r="S95" s="54"/>
-      <c r="T95" s="54"/>
+      <c r="S95" s="52"/>
+      <c r="T95" s="52"/>
       <c r="V95" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="36" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>178</v>
@@ -13152,7 +13176,7 @@
         <v>31</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="L96" s="14" t="s">
         <v>182</v>
@@ -13167,10 +13191,10 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="16"/>
       <c r="R96" s="17"/>
-      <c r="S96" s="54" t="s">
+      <c r="S96" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="T96" s="54" t="s">
+      <c r="T96" s="52" t="s">
         <v>182</v>
       </c>
       <c r="V96" s="12">
@@ -13179,7 +13203,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="36" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>184</v>
@@ -13209,7 +13233,7 @@
         <v>31</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="L97" s="14" t="s">
         <v>182</v>
@@ -13224,15 +13248,15 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="17"/>
-      <c r="S97" s="54"/>
-      <c r="T97" s="54"/>
+      <c r="S97" s="52"/>
+      <c r="T97" s="52"/>
       <c r="V97" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>188</v>
@@ -13262,7 +13286,7 @@
         <v>31</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="L98" s="14" t="s">
         <v>182</v>
@@ -13277,15 +13301,15 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="17"/>
-      <c r="S98" s="54"/>
-      <c r="T98" s="54"/>
+      <c r="S98" s="52"/>
+      <c r="T98" s="52"/>
       <c r="V98" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="36" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>191</v>
@@ -13315,7 +13339,7 @@
         <v>31</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="L99" s="14" t="s">
         <v>182</v>
@@ -13330,8 +13354,8 @@
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="17"/>
-      <c r="S99" s="54"/>
-      <c r="T99" s="54"/>
+      <c r="S99" s="52"/>
+      <c r="T99" s="52"/>
       <c r="V99" s="12">
         <v>20</v>
       </c>
@@ -13368,7 +13392,7 @@
         <v>31</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="L100" s="14" t="s">
         <v>182</v>
@@ -13383,8 +13407,8 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="16"/>
       <c r="R100" s="17"/>
-      <c r="S100" s="54"/>
-      <c r="T100" s="54"/>
+      <c r="S100" s="52"/>
+      <c r="T100" s="52"/>
       <c r="V100" s="12">
         <v>20</v>
       </c>
@@ -13421,7 +13445,7 @@
         <v>31</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="L101" s="14" t="s">
         <v>182</v>
@@ -13436,8 +13460,8 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="16"/>
       <c r="R101" s="17"/>
-      <c r="S101" s="54"/>
-      <c r="T101" s="54"/>
+      <c r="S101" s="52"/>
+      <c r="T101" s="52"/>
       <c r="V101" s="12">
         <v>20</v>
       </c>
@@ -13474,7 +13498,7 @@
         <v>31</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>979</v>
+        <v>1065</v>
       </c>
       <c r="L102" s="14" t="s">
         <v>182</v>
@@ -13489,8 +13513,8 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="16"/>
       <c r="R102" s="17"/>
-      <c r="S102" s="54"/>
-      <c r="T102" s="54"/>
+      <c r="S102" s="52"/>
+      <c r="T102" s="52"/>
       <c r="V102" s="12">
         <v>20</v>
       </c>
@@ -13527,7 +13551,7 @@
         <v>31</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="L103" s="14" t="s">
         <v>182</v>
@@ -13542,8 +13566,8 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="17"/>
-      <c r="S103" s="54"/>
-      <c r="T103" s="54"/>
+      <c r="S103" s="52"/>
+      <c r="T103" s="52"/>
       <c r="V103" s="12">
         <v>20</v>
       </c>
@@ -13592,7 +13616,7 @@
         <v>32</v>
       </c>
       <c r="O104" s="13" t="s">
-        <v>166</v>
+        <v>1051</v>
       </c>
       <c r="P104" s="6" t="s">
         <v>31</v>
@@ -13603,15 +13627,15 @@
       <c r="R104" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S104" s="54"/>
-      <c r="T104" s="54"/>
+      <c r="S104" s="52"/>
+      <c r="T104" s="52"/>
       <c r="V104" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="36" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>214</v>
@@ -13641,7 +13665,7 @@
         <v>31</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="L105" s="12" t="s">
         <v>218</v>
@@ -13656,10 +13680,10 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="54" t="s">
+      <c r="S105" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="T105" s="54" t="s">
+      <c r="T105" s="52" t="s">
         <v>220</v>
       </c>
       <c r="V105" s="12">
@@ -13668,7 +13692,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="36" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>221</v>
@@ -13698,7 +13722,7 @@
         <v>143</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="L106" s="12" t="s">
         <v>218</v>
@@ -13713,15 +13737,15 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="16"/>
       <c r="R106" s="17"/>
-      <c r="S106" s="54"/>
-      <c r="T106" s="54"/>
+      <c r="S106" s="52"/>
+      <c r="T106" s="52"/>
       <c r="V106" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="36" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>224</v>
@@ -13751,7 +13775,7 @@
         <v>143</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="L107" s="12" t="s">
         <v>218</v>
@@ -13766,15 +13790,15 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="16"/>
       <c r="R107" s="17"/>
-      <c r="S107" s="54"/>
-      <c r="T107" s="54"/>
+      <c r="S107" s="52"/>
+      <c r="T107" s="52"/>
       <c r="V107" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="36" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>227</v>
@@ -13804,7 +13828,7 @@
         <v>143</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="L108" s="12" t="s">
         <v>218</v>
@@ -13819,18 +13843,18 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="16"/>
       <c r="R108" s="17"/>
-      <c r="S108" s="54"/>
-      <c r="T108" s="54"/>
+      <c r="S108" s="52"/>
+      <c r="T108" s="52"/>
       <c r="V108" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="36" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>231</v>
@@ -13869,7 +13893,7 @@
         <v>32</v>
       </c>
       <c r="O109" s="13" t="s">
-        <v>233</v>
+        <v>1064</v>
       </c>
       <c r="P109" s="6" t="s">
         <v>31</v>
@@ -13880,18 +13904,18 @@
       <c r="R109" s="15">
         <v>1</v>
       </c>
-      <c r="S109" s="54"/>
-      <c r="T109" s="54"/>
+      <c r="S109" s="52"/>
+      <c r="T109" s="52"/>
       <c r="V109" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="36" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>234</v>
@@ -13941,18 +13965,18 @@
       <c r="R110" s="15">
         <v>1</v>
       </c>
-      <c r="S110" s="54"/>
-      <c r="T110" s="54"/>
+      <c r="S110" s="52"/>
+      <c r="T110" s="52"/>
       <c r="V110" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="36" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>237</v>
@@ -14002,18 +14026,18 @@
       <c r="R111" s="15">
         <v>1</v>
       </c>
-      <c r="S111" s="54"/>
-      <c r="T111" s="54"/>
+      <c r="S111" s="52"/>
+      <c r="T111" s="52"/>
       <c r="V111" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="36" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>240</v>
@@ -14063,18 +14087,18 @@
       <c r="R112" s="15">
         <v>1</v>
       </c>
-      <c r="S112" s="54"/>
-      <c r="T112" s="54"/>
+      <c r="S112" s="52"/>
+      <c r="T112" s="52"/>
       <c r="V112" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="36" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>244</v>
@@ -14124,18 +14148,18 @@
       <c r="R113" s="15">
         <v>1</v>
       </c>
-      <c r="S113" s="54"/>
-      <c r="T113" s="54"/>
+      <c r="S113" s="52"/>
+      <c r="T113" s="52"/>
       <c r="V113" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="36" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>247</v>
@@ -14185,18 +14209,18 @@
       <c r="R114" s="15">
         <v>1</v>
       </c>
-      <c r="S114" s="54"/>
-      <c r="T114" s="54"/>
+      <c r="S114" s="52"/>
+      <c r="T114" s="52"/>
       <c r="V114" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="36" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>250</v>
@@ -14246,18 +14270,18 @@
       <c r="R115" s="15">
         <v>1</v>
       </c>
-      <c r="S115" s="54"/>
-      <c r="T115" s="54"/>
+      <c r="S115" s="52"/>
+      <c r="T115" s="52"/>
       <c r="V115" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="36" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>254</v>
@@ -14307,18 +14331,18 @@
       <c r="R116" s="15">
         <v>1</v>
       </c>
-      <c r="S116" s="54"/>
-      <c r="T116" s="54"/>
+      <c r="S116" s="52"/>
+      <c r="T116" s="52"/>
       <c r="V116" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="36" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>258</v>
@@ -14368,18 +14392,18 @@
       <c r="R117" s="15">
         <v>1</v>
       </c>
-      <c r="S117" s="54"/>
-      <c r="T117" s="54"/>
+      <c r="S117" s="52"/>
+      <c r="T117" s="52"/>
       <c r="V117" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="36" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>261</v>
@@ -14429,18 +14453,18 @@
       <c r="R118" s="15">
         <v>1</v>
       </c>
-      <c r="S118" s="54"/>
-      <c r="T118" s="54"/>
+      <c r="S118" s="52"/>
+      <c r="T118" s="52"/>
       <c r="V118" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="36" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>265</v>
@@ -14490,18 +14514,18 @@
       <c r="R119" s="15">
         <v>1</v>
       </c>
-      <c r="S119" s="54"/>
-      <c r="T119" s="54"/>
+      <c r="S119" s="52"/>
+      <c r="T119" s="52"/>
       <c r="V119" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="36" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>269</v>
@@ -14551,18 +14575,18 @@
       <c r="R120" s="15">
         <v>1</v>
       </c>
-      <c r="S120" s="54"/>
-      <c r="T120" s="54"/>
+      <c r="S120" s="52"/>
+      <c r="T120" s="52"/>
       <c r="V120" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="36" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>272</v>
@@ -14612,18 +14636,18 @@
       <c r="R121" s="15">
         <v>1</v>
       </c>
-      <c r="S121" s="54"/>
-      <c r="T121" s="54"/>
+      <c r="S121" s="52"/>
+      <c r="T121" s="52"/>
       <c r="V121" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="36" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>276</v>
@@ -14673,18 +14697,18 @@
       <c r="R122" s="15">
         <v>1</v>
       </c>
-      <c r="S122" s="54"/>
-      <c r="T122" s="54"/>
+      <c r="S122" s="52"/>
+      <c r="T122" s="52"/>
       <c r="V122" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="36" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>280</v>
@@ -14734,18 +14758,18 @@
       <c r="R123" s="15">
         <v>1</v>
       </c>
-      <c r="S123" s="54"/>
-      <c r="T123" s="54"/>
+      <c r="S123" s="52"/>
+      <c r="T123" s="52"/>
       <c r="V123" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="36" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>231</v>
@@ -14801,10 +14825,10 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="36" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>234</v>
@@ -14860,10 +14884,10 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="36" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>237</v>
@@ -14919,10 +14943,10 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="36" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>240</v>
@@ -14978,10 +15002,10 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="36" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>244</v>
@@ -15037,10 +15061,10 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="36" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>247</v>
@@ -15096,10 +15120,10 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="36" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>250</v>
@@ -15155,10 +15179,10 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="36" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>254</v>
@@ -15214,10 +15238,10 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="36" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>258</v>
@@ -15273,10 +15297,10 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="36" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>261</v>
@@ -15332,10 +15356,10 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="36" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>265</v>
@@ -15391,10 +15415,10 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="36" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>269</v>
@@ -15450,10 +15474,10 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="36" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B136" s="36" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>272</v>
@@ -15509,10 +15533,10 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="36" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>276</v>
@@ -15568,10 +15592,10 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="36" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>280</v>
@@ -15780,18 +15804,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S2:S19"/>
-    <mergeCell ref="T2:T19"/>
-    <mergeCell ref="S20:S37"/>
-    <mergeCell ref="T20:T37"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="S76:S77"/>
-    <mergeCell ref="T76:T77"/>
     <mergeCell ref="S105:S123"/>
     <mergeCell ref="T105:T123"/>
     <mergeCell ref="S82:S83"/>
@@ -15800,10 +15812,22 @@
     <mergeCell ref="T93:T95"/>
     <mergeCell ref="S96:S104"/>
     <mergeCell ref="T96:T104"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="T76:T77"/>
+    <mergeCell ref="S2:S19"/>
+    <mergeCell ref="T2:T19"/>
+    <mergeCell ref="S20:S37"/>
+    <mergeCell ref="T20:T37"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15833,7 +15857,7 @@
         <v>705</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -15885,7 +15909,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C6" t="s">
         <v>731</v>
@@ -15899,7 +15923,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>793</v>
@@ -15910,7 +15934,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C9" t="s">
         <v>731</v>
@@ -15921,7 +15945,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C10" t="s">
         <v>731</v>
@@ -15932,7 +15956,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C11" t="s">
         <v>731</v>
@@ -15943,7 +15967,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C12" t="s">
         <v>731</v>
@@ -15957,7 +15981,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>792</v>
@@ -15968,7 +15992,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C15" t="s">
         <v>731</v>
@@ -15979,7 +16003,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C16" t="s">
         <v>731</v>
@@ -15990,7 +16014,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C17" t="s">
         <v>731</v>
@@ -16001,7 +16025,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C18" t="s">
         <v>731</v>
@@ -16012,7 +16036,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>802</v>
@@ -16023,7 +16047,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C20" t="s">
         <v>731</v>
@@ -16034,7 +16058,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C21" t="s">
         <v>731</v>
@@ -16045,7 +16069,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C22" t="s">
         <v>731</v>
@@ -16056,7 +16080,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C23" t="s">
         <v>731</v>
@@ -16070,7 +16094,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>809</v>
@@ -16081,7 +16105,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C26" t="s">
         <v>731</v>
@@ -16092,7 +16116,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C27" t="s">
         <v>731</v>
@@ -16103,7 +16127,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C28" t="s">
         <v>731</v>
@@ -16114,7 +16138,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C29" t="s">
         <v>731</v>
@@ -16128,7 +16152,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>74</v>
@@ -16150,7 +16174,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>811</v>
@@ -16161,7 +16185,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>83</v>
@@ -16175,35 +16199,35 @@
         <v>6</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -16211,18 +16235,18 @@
         <v>7</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>116</v>
@@ -16233,13 +16257,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -16247,35 +16271,35 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C48" t="s">
         <v>133</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -16283,7 +16307,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>149</v>
@@ -16294,13 +16318,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="13" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -16314,51 +16338,51 @@
         <v>731</v>
       </c>
       <c r="D56" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="51" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="C57" t="s">
         <v>731</v>
       </c>
       <c r="D57" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="51" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="C58" t="s">
         <v>731</v>
       </c>
       <c r="D58" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="51" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="C59" t="s">
         <v>731</v>
       </c>
       <c r="D59" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="51" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C60" t="s">
         <v>731</v>
       </c>
       <c r="D60" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -16366,46 +16390,46 @@
         <v>11</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="C62" t="s">
         <v>731</v>
       </c>
       <c r="D62" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="C63" t="s">
         <v>731</v>
       </c>
       <c r="D63" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="C64" t="s">
         <v>731</v>
       </c>
       <c r="D64" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C65" t="s">
         <v>731</v>
       </c>
       <c r="D65" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -16413,46 +16437,46 @@
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="C67" t="s">
         <v>731</v>
       </c>
       <c r="D67" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C68" t="s">
         <v>731</v>
       </c>
       <c r="D68" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C69" t="s">
         <v>731</v>
       </c>
       <c r="D69" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="C70" t="s">
         <v>731</v>
       </c>
       <c r="D70" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -18462,10 +18486,10 @@
       <c r="E114" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="F114" s="56" t="s">
+      <c r="F114" s="54" t="s">
         <v>522</v>
       </c>
-      <c r="G114" s="56"/>
+      <c r="G114" s="54"/>
       <c r="H114" s="28" t="s">
         <v>661</v>
       </c>

--- a/gd/副本内容设计/通用技能设计.xlsx
+++ b/gd/副本内容设计/通用技能设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Way4games\策划文档\副本内容设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="美术需求" sheetId="3" r:id="rId2"/>
     <sheet name="icon" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="1079">
   <si>
     <t>技能id</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3574,10 +3574,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>magicPlantColumn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>magicPlantColumnp</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4547,10 +4543,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>magicPlantColumn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>plantp1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4580,6 +4572,30 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalColumnp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalColumnp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalColumnp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantBallp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantBallp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantBallp</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4587,7 +4603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4918,15 +4934,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4953,6 +4960,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8229,13 +8245,13 @@
   <dimension ref="A1:AG161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="L88" sqref="A88:L92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="6" bestFit="1" customWidth="1"/>
@@ -8260,7 +8276,7 @@
     <col min="24" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="15">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8280,7 +8296,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -8331,7 +8347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>705</v>
       </c>
@@ -8351,7 +8367,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>21</v>
@@ -8381,10 +8397,10 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
       <c r="S2" s="17"/>
-      <c r="T2" s="56" t="s">
+      <c r="T2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="65" t="s">
         <v>25</v>
       </c>
       <c r="V2" s="6" t="s">
@@ -8394,7 +8410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>698</v>
       </c>
@@ -8414,7 +8430,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>31</v>
@@ -8444,13 +8460,13 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
       <c r="W3" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>699</v>
       </c>
@@ -8470,7 +8486,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>31</v>
@@ -8500,13 +8516,13 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
       <c r="W4" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>725</v>
       </c>
@@ -8526,7 +8542,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>21</v>
@@ -8556,11 +8572,11 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
       <c r="W5" s="12"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>706</v>
       </c>
@@ -8580,7 +8596,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>31</v>
@@ -8610,11 +8626,11 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
       <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>707</v>
       </c>
@@ -8634,7 +8650,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>31</v>
@@ -8664,13 +8680,13 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
       <c r="W7" s="12"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>716</v>
@@ -8688,7 +8704,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>21</v>
@@ -8703,7 +8719,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>22</v>
@@ -8718,11 +8734,11 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
       <c r="W8" s="12"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>708</v>
       </c>
@@ -8742,7 +8758,7 @@
         <v>31</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>31</v>
@@ -8772,11 +8788,11 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>709</v>
       </c>
@@ -8796,7 +8812,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>31</v>
@@ -8826,11 +8842,11 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>726</v>
       </c>
@@ -8850,7 +8866,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>21</v>
@@ -8880,11 +8896,11 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
       <c r="W11" s="12"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>710</v>
       </c>
@@ -8904,7 +8920,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>31</v>
@@ -8934,11 +8950,11 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>711</v>
       </c>
@@ -8958,7 +8974,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>31</v>
@@ -8973,7 +8989,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>25</v>
@@ -8988,11 +9004,11 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>727</v>
       </c>
@@ -9012,7 +9028,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>21</v>
@@ -9042,11 +9058,11 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>712</v>
       </c>
@@ -9066,7 +9082,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>31</v>
@@ -9096,11 +9112,11 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>787</v>
       </c>
@@ -9120,7 +9136,7 @@
         <v>31</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>31</v>
@@ -9150,11 +9166,11 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
       <c r="W16" s="12"/>
     </row>
-    <row r="17" spans="1:23" s="39" customFormat="1">
+    <row r="17" spans="1:23" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>37</v>
       </c>
@@ -9174,7 +9190,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H17" s="42" t="s">
         <v>31</v>
@@ -9201,13 +9217,13 @@
         <v>21</v>
       </c>
       <c r="S17" s="45"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
       <c r="W17" s="43">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="39" customFormat="1">
+    <row r="18" spans="1:23" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>43</v>
       </c>
@@ -9227,7 +9243,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H18" s="42" t="s">
         <v>31</v>
@@ -9254,13 +9270,13 @@
         <v>21</v>
       </c>
       <c r="S18" s="45"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
       <c r="W18" s="43">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="39" customFormat="1">
+    <row r="19" spans="1:23" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>48</v>
       </c>
@@ -9280,7 +9296,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H19" s="42" t="s">
         <v>31</v>
@@ -9307,13 +9323,13 @@
         <v>21</v>
       </c>
       <c r="S19" s="45"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
       <c r="W19" s="43">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1">
+    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>730</v>
       </c>
@@ -9333,7 +9349,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>31</v>
@@ -9363,17 +9379,17 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="56" t="s">
+      <c r="T20" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="56" t="s">
+      <c r="U20" s="65" t="s">
         <v>57</v>
       </c>
       <c r="W20" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>731</v>
       </c>
@@ -9393,7 +9409,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>31</v>
@@ -9423,13 +9439,13 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
       <c r="W21" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>732</v>
       </c>
@@ -9449,7 +9465,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>31</v>
@@ -9479,13 +9495,13 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
       <c r="W22" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>758</v>
       </c>
@@ -9505,7 +9521,7 @@
         <v>31</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>31</v>
@@ -9535,11 +9551,11 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
       <c r="W23" s="12"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>733</v>
       </c>
@@ -9559,7 +9575,7 @@
         <v>31</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>31</v>
@@ -9589,11 +9605,11 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
       <c r="W24" s="12"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>734</v>
       </c>
@@ -9613,7 +9629,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>31</v>
@@ -9643,11 +9659,11 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
       <c r="W25" s="12"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>735</v>
       </c>
@@ -9667,7 +9683,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>31</v>
@@ -9697,11 +9713,11 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
       <c r="W26" s="12"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>736</v>
       </c>
@@ -9721,7 +9737,7 @@
         <v>31</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>31</v>
@@ -9751,11 +9767,11 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
       <c r="W27" s="12"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>737</v>
       </c>
@@ -9775,7 +9791,7 @@
         <v>31</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>31</v>
@@ -9805,11 +9821,11 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
       <c r="W28" s="12"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>738</v>
       </c>
@@ -9829,7 +9845,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>31</v>
@@ -9859,11 +9875,11 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
       <c r="W29" s="12"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
         <v>739</v>
       </c>
@@ -9883,7 +9899,7 @@
         <v>31</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>31</v>
@@ -9913,11 +9929,11 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
       <c r="W30" s="12"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>740</v>
       </c>
@@ -9937,7 +9953,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>31</v>
@@ -9967,11 +9983,11 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
       <c r="W31" s="12"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>759</v>
       </c>
@@ -9991,7 +10007,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>31</v>
@@ -10021,11 +10037,11 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
       <c r="W32" s="12"/>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>741</v>
       </c>
@@ -10045,7 +10061,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>31</v>
@@ -10075,11 +10091,11 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
       <c r="W33" s="12"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>742</v>
       </c>
@@ -10099,7 +10115,7 @@
         <v>31</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>31</v>
@@ -10129,11 +10145,11 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
       <c r="W34" s="12"/>
     </row>
-    <row r="35" spans="1:33" s="39" customFormat="1">
+    <row r="35" spans="1:33" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>729</v>
       </c>
@@ -10153,7 +10169,7 @@
         <v>31</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H35" s="42" t="s">
         <v>31</v>
@@ -10180,14 +10196,14 @@
         <v>1</v>
       </c>
       <c r="S35" s="45"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
       <c r="W35" s="43">
         <v>20</v>
       </c>
       <c r="AG35" s="47"/>
     </row>
-    <row r="36" spans="1:33" s="39" customFormat="1">
+    <row r="36" spans="1:33" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>63</v>
       </c>
@@ -10207,7 +10223,7 @@
         <v>31</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H36" s="42" t="s">
         <v>31</v>
@@ -10234,14 +10250,14 @@
         <v>1</v>
       </c>
       <c r="S36" s="45"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
       <c r="W36" s="43">
         <v>20</v>
       </c>
       <c r="AG36" s="47"/>
     </row>
-    <row r="37" spans="1:33" s="39" customFormat="1">
+    <row r="37" spans="1:33" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>65</v>
       </c>
@@ -10261,7 +10277,7 @@
         <v>31</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H37" s="42" t="s">
         <v>31</v>
@@ -10288,15 +10304,15 @@
         <v>1</v>
       </c>
       <c r="S37" s="45"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
       <c r="W37" s="43">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="16.5" customHeight="1">
+    <row r="38" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>770</v>
@@ -10314,7 +10330,7 @@
         <v>31</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>31</v>
@@ -10344,17 +10360,17 @@
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
       <c r="S38" s="17"/>
-      <c r="T38" s="56" t="s">
+      <c r="T38" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="U38" s="56" t="s">
+      <c r="U38" s="65" t="s">
         <v>67</v>
       </c>
       <c r="W38" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>760</v>
       </c>
@@ -10374,7 +10390,7 @@
         <v>31</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>31</v>
@@ -10404,13 +10420,13 @@
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
       <c r="S39" s="17"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
       <c r="W39" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
         <v>761</v>
       </c>
@@ -10430,7 +10446,7 @@
         <v>31</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>31</v>
@@ -10460,13 +10476,13 @@
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
       <c r="S40" s="17"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
       <c r="W40" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
         <v>785</v>
       </c>
@@ -10486,7 +10502,7 @@
         <v>31</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>31</v>
@@ -10520,7 +10536,7 @@
       <c r="U41" s="25"/>
       <c r="W41" s="12"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
         <v>762</v>
       </c>
@@ -10540,7 +10556,7 @@
         <v>31</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>31</v>
@@ -10574,7 +10590,7 @@
       <c r="U42" s="25"/>
       <c r="W42" s="12"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
         <v>763</v>
       </c>
@@ -10594,7 +10610,7 @@
         <v>31</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>31</v>
@@ -10628,7 +10644,7 @@
       <c r="U43" s="25"/>
       <c r="W43" s="12"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
         <v>764</v>
       </c>
@@ -10648,7 +10664,7 @@
         <v>31</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>31</v>
@@ -10682,7 +10698,7 @@
       <c r="U44" s="25"/>
       <c r="W44" s="12"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
         <v>765</v>
       </c>
@@ -10702,7 +10718,7 @@
         <v>31</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>31</v>
@@ -10736,7 +10752,7 @@
       <c r="U45" s="25"/>
       <c r="W45" s="12"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
         <v>766</v>
       </c>
@@ -10756,7 +10772,7 @@
         <v>31</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>31</v>
@@ -10790,7 +10806,7 @@
       <c r="U46" s="25"/>
       <c r="W46" s="12"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
         <v>801</v>
       </c>
@@ -10810,7 +10826,7 @@
         <v>31</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>31</v>
@@ -10844,7 +10860,7 @@
       <c r="U47" s="25"/>
       <c r="W47" s="12"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
         <v>767</v>
       </c>
@@ -10864,7 +10880,7 @@
         <v>31</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>31</v>
@@ -10898,7 +10914,7 @@
       <c r="U48" s="25"/>
       <c r="W48" s="12"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
         <v>768</v>
       </c>
@@ -10918,7 +10934,7 @@
         <v>31</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>31</v>
@@ -10952,7 +10968,7 @@
       <c r="U49" s="25"/>
       <c r="W49" s="12"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
         <v>802</v>
       </c>
@@ -10972,7 +10988,7 @@
         <v>31</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>31</v>
@@ -11006,7 +11022,7 @@
       <c r="U50" s="25"/>
       <c r="W50" s="12"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
         <v>786</v>
       </c>
@@ -11026,7 +11042,7 @@
         <v>31</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>31</v>
@@ -11060,7 +11076,7 @@
       <c r="U51" s="25"/>
       <c r="W51" s="12"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="36" t="s">
         <v>769</v>
       </c>
@@ -11080,7 +11096,7 @@
         <v>31</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>31</v>
@@ -11114,12 +11130,12 @@
       <c r="U52" s="25"/>
       <c r="W52" s="12"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
         <v>866</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>54</v>
@@ -11134,7 +11150,7 @@
         <v>21</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>21</v>
@@ -11158,7 +11174,7 @@
         <v>23</v>
       </c>
       <c r="O53" s="50" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
@@ -11168,12 +11184,12 @@
       <c r="U53" s="25"/>
       <c r="W53" s="12"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
         <v>853</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>54</v>
@@ -11188,7 +11204,7 @@
         <v>21</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>21</v>
@@ -11212,7 +11228,7 @@
         <v>23</v>
       </c>
       <c r="O54" s="50" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
@@ -11222,12 +11238,12 @@
       <c r="U54" s="25"/>
       <c r="W54" s="12"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
         <v>854</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>54</v>
@@ -11242,7 +11258,7 @@
         <v>21</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>21</v>
@@ -11266,7 +11282,7 @@
         <v>23</v>
       </c>
       <c r="O55" s="50" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
@@ -11276,12 +11292,12 @@
       <c r="U55" s="25"/>
       <c r="W55" s="12"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
         <v>855</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>54</v>
@@ -11296,7 +11312,7 @@
         <v>21</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>21</v>
@@ -11320,7 +11336,7 @@
         <v>23</v>
       </c>
       <c r="O56" s="50" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
@@ -11330,12 +11346,12 @@
       <c r="U56" s="25"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
         <v>856</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>54</v>
@@ -11350,7 +11366,7 @@
         <v>21</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>21</v>
@@ -11374,7 +11390,7 @@
         <v>23</v>
       </c>
       <c r="O57" s="50" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
@@ -11384,7 +11400,7 @@
       <c r="U57" s="25"/>
       <c r="W57" s="12"/>
     </row>
-    <row r="58" spans="1:23" ht="33">
+    <row r="58" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
         <v>814</v>
       </c>
@@ -11404,7 +11420,7 @@
         <v>72</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>73</v>
@@ -11434,17 +11450,17 @@
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
       <c r="S58" s="17"/>
-      <c r="T58" s="56" t="s">
+      <c r="T58" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="U58" s="56" t="s">
+      <c r="U58" s="65" t="s">
         <v>79</v>
       </c>
       <c r="W58" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
         <v>815</v>
       </c>
@@ -11464,7 +11480,7 @@
         <v>72</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>73</v>
@@ -11494,13 +11510,13 @@
       <c r="Q59" s="16"/>
       <c r="R59" s="16"/>
       <c r="S59" s="17"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="65"/>
       <c r="W59" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="33">
+    <row r="60" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
         <v>816</v>
       </c>
@@ -11520,7 +11536,7 @@
         <v>72</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>73</v>
@@ -11560,7 +11576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="33">
+    <row r="61" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
         <v>817</v>
       </c>
@@ -11580,7 +11596,7 @@
         <v>72</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>73</v>
@@ -11595,7 +11611,7 @@
         <v>31</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>857</v>
+        <v>1073</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>820</v>
@@ -11614,7 +11630,7 @@
       <c r="U61" s="25"/>
       <c r="W61" s="12"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
         <v>818</v>
       </c>
@@ -11634,7 +11650,7 @@
         <v>72</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>73</v>
@@ -11649,7 +11665,7 @@
         <v>31</v>
       </c>
       <c r="L62" s="13" t="s">
-        <v>857</v>
+        <v>1074</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>821</v>
@@ -11668,7 +11684,7 @@
       <c r="U62" s="25"/>
       <c r="W62" s="12"/>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
         <v>819</v>
       </c>
@@ -11688,7 +11704,7 @@
         <v>72</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>73</v>
@@ -11703,7 +11719,7 @@
         <v>31</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>857</v>
+        <v>1075</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>86</v>
@@ -11722,61 +11738,61 @@
       <c r="U63" s="25"/>
       <c r="W63" s="12"/>
     </row>
-    <row r="64" spans="1:23" s="60" customFormat="1">
-      <c r="A64" s="59" t="s">
+    <row r="64" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="56" t="s">
         <v>873</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="56" t="s">
         <v>867</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="60" t="s">
+      <c r="E64" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="62" t="s">
+      <c r="F64" s="59" t="s">
         <v>92</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H64" s="63" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H64" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="I64" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="K64" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="L64" s="64" t="s">
+      <c r="I64" s="61" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J64" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="61" t="s">
         <v>878</v>
       </c>
-      <c r="M64" s="65" t="s">
+      <c r="M64" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N64" s="65" t="s">
+      <c r="N64" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O64" s="63" t="s">
+      <c r="O64" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="S64" s="66"/>
-      <c r="T64" s="60" t="s">
+      <c r="S64" s="63"/>
+      <c r="T64" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="W64" s="64">
+      <c r="W64" s="61">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
         <v>874</v>
       </c>
@@ -11796,13 +11812,13 @@
         <v>92</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>93</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>31</v>
+        <v>1077</v>
       </c>
       <c r="J65" s="13" t="s">
         <v>31</v>
@@ -11826,17 +11842,17 @@
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
       <c r="S65" s="17"/>
-      <c r="T65" s="56" t="s">
+      <c r="T65" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="U65" s="56" t="s">
+      <c r="U65" s="65" t="s">
         <v>99</v>
       </c>
       <c r="W65" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
         <v>875</v>
       </c>
@@ -11856,13 +11872,13 @@
         <v>102</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>93</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>31</v>
+        <v>1078</v>
       </c>
       <c r="J66" s="13" t="s">
         <v>31</v>
@@ -11886,15 +11902,15 @@
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
       <c r="S66" s="17"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="65"/>
       <c r="W66" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B67" s="36" t="s">
         <v>870</v>
@@ -11912,22 +11928,22 @@
         <v>92</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>93</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>1061</v>
+        <v>21</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="K67" s="18">
         <v>1</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="M67" s="12" t="s">
         <v>31</v>
@@ -11946,7 +11962,7 @@
       <c r="U67" s="25"/>
       <c r="W67" s="12"/>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
         <v>876</v>
       </c>
@@ -11966,16 +11982,16 @@
         <v>92</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>93</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>882</v>
+        <v>21</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="K68" s="18">
         <v>1</v>
@@ -12000,7 +12016,7 @@
       <c r="U68" s="25"/>
       <c r="W68" s="12"/>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
         <v>877</v>
       </c>
@@ -12020,16 +12036,16 @@
         <v>102</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>93</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>882</v>
+        <v>21</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="K69" s="18">
         <v>1</v>
@@ -12054,183 +12070,183 @@
       <c r="U69" s="25"/>
       <c r="W69" s="12"/>
     </row>
-    <row r="70" spans="1:23" s="60" customFormat="1" ht="33">
-      <c r="A70" s="59" t="s">
-        <v>903</v>
-      </c>
-      <c r="B70" s="59" t="s">
+    <row r="70" spans="1:23" s="57" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" s="56" t="s">
+        <v>902</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>931</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H70" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="61" t="s">
+        <v>899</v>
+      </c>
+      <c r="J70" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K70" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" s="61" t="s">
+        <v>898</v>
+      </c>
+      <c r="M70" s="61" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N70" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="63">
+        <v>1</v>
+      </c>
+      <c r="S70" s="63"/>
+      <c r="T70" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="U70" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="W70" s="61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="57" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="56" t="s">
+        <v>886</v>
+      </c>
+      <c r="B71" s="56" t="s">
         <v>932</v>
       </c>
-      <c r="C70" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="60" t="s">
+      <c r="C71" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="62" t="s">
+      <c r="F71" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H70" s="63" t="s">
+      <c r="G71" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H71" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="I70" s="64" t="s">
+      <c r="I71" s="61" t="s">
+        <v>899</v>
+      </c>
+      <c r="J71" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K71" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" s="61" t="s">
+        <v>898</v>
+      </c>
+      <c r="M71" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="N71" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" s="63">
+        <v>1</v>
+      </c>
+      <c r="S71" s="63"/>
+      <c r="T71" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="U71" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="W71" s="61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="57" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="56" t="s">
+        <v>887</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>933</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="61" t="s">
         <v>900</v>
       </c>
-      <c r="J70" s="64" t="s">
+      <c r="J72" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="K70" s="63" t="s">
+      <c r="K72" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="64" t="s">
-        <v>899</v>
-      </c>
-      <c r="M70" s="64" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N70" s="65" t="s">
+      <c r="L72" s="61" t="s">
+        <v>898</v>
+      </c>
+      <c r="M72" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="N72" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O70" s="66">
+      <c r="O72" s="63">
         <v>1</v>
       </c>
-      <c r="S70" s="66"/>
-      <c r="T70" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="U70" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="W70" s="64">
+      <c r="S72" s="63"/>
+      <c r="T72" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="U72" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="W72" s="61">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="60" customFormat="1" ht="33">
-      <c r="A71" s="59" t="s">
-        <v>887</v>
-      </c>
-      <c r="B71" s="59" t="s">
-        <v>933</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H71" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="I71" s="64" t="s">
-        <v>900</v>
-      </c>
-      <c r="J71" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="K71" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" s="64" t="s">
-        <v>899</v>
-      </c>
-      <c r="M71" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="N71" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="O71" s="66">
-        <v>1</v>
-      </c>
-      <c r="S71" s="66"/>
-      <c r="T71" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="U71" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="W71" s="64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" s="60" customFormat="1" ht="33">
-      <c r="A72" s="59" t="s">
-        <v>888</v>
-      </c>
-      <c r="B72" s="59" t="s">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>906</v>
+      </c>
+      <c r="B73" s="36" t="s">
         <v>934</v>
-      </c>
-      <c r="C72" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H72" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="I72" s="64" t="s">
-        <v>901</v>
-      </c>
-      <c r="J72" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="K72" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" s="64" t="s">
-        <v>899</v>
-      </c>
-      <c r="M72" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="N72" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" s="66">
-        <v>1</v>
-      </c>
-      <c r="S72" s="66"/>
-      <c r="T72" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="U72" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="W72" s="64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
-      <c r="A73" s="35" t="s">
-        <v>907</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>935</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>104</v>
@@ -12245,13 +12261,13 @@
         <v>106</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H73" s="18" t="s">
         <v>107</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>902</v>
+        <v>21</v>
       </c>
       <c r="J73" s="13" t="s">
         <v>114</v>
@@ -12260,10 +12276,10 @@
         <v>1</v>
       </c>
       <c r="L73" s="13" t="s">
-        <v>1053</v>
+        <v>901</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="N73" s="14" t="s">
         <v>32</v>
@@ -12279,12 +12295,12 @@
       <c r="U73" s="25"/>
       <c r="W73" s="12"/>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>111</v>
@@ -12299,13 +12315,13 @@
         <v>106</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>107</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>902</v>
+        <v>21</v>
       </c>
       <c r="J74" s="13" t="s">
         <v>114</v>
@@ -12314,10 +12330,10 @@
         <v>1</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>1054</v>
+        <v>901</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N74" s="14" t="s">
         <v>32</v>
@@ -12333,12 +12349,12 @@
       <c r="U74" s="25"/>
       <c r="W74" s="12"/>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>118</v>
@@ -12353,13 +12369,13 @@
         <v>106</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H75" s="18" t="s">
         <v>107</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>915</v>
+        <v>21</v>
       </c>
       <c r="J75" s="13" t="s">
         <v>114</v>
@@ -12368,10 +12384,10 @@
         <v>1</v>
       </c>
       <c r="L75" s="13" t="s">
-        <v>1055</v>
+        <v>914</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="N75" s="14" t="s">
         <v>32</v>
@@ -12387,12 +12403,12 @@
       <c r="U75" s="25"/>
       <c r="W75" s="12"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>124</v>
@@ -12407,13 +12423,13 @@
         <v>126</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H76" s="18" t="s">
         <v>127</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J76" s="13" t="s">
         <v>128</v>
@@ -12422,7 +12438,7 @@
         <v>32</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>129</v>
@@ -12437,22 +12453,22 @@
       <c r="Q76" s="16"/>
       <c r="R76" s="16"/>
       <c r="S76" s="17"/>
-      <c r="T76" s="56" t="s">
+      <c r="T76" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="U76" s="56" t="s">
+      <c r="U76" s="65" t="s">
         <v>131</v>
       </c>
       <c r="W76" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>133</v>
@@ -12467,13 +12483,13 @@
         <v>136</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>127</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J77" s="13" t="s">
         <v>128</v>
@@ -12482,7 +12498,7 @@
         <v>32</v>
       </c>
       <c r="L77" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M77" s="12" t="s">
         <v>129</v>
@@ -12497,18 +12513,18 @@
       <c r="Q77" s="16"/>
       <c r="R77" s="16"/>
       <c r="S77" s="17"/>
-      <c r="T77" s="56"/>
-      <c r="U77" s="56"/>
+      <c r="T77" s="65"/>
+      <c r="U77" s="65"/>
       <c r="W77" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>139</v>
@@ -12523,13 +12539,13 @@
         <v>136</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>127</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J78" s="13" t="s">
         <v>128</v>
@@ -12538,7 +12554,7 @@
         <v>32</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>129</v>
@@ -12563,12 +12579,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>124</v>
@@ -12583,13 +12599,13 @@
         <v>126</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>127</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>916</v>
+        <v>21</v>
       </c>
       <c r="J79" s="13" t="s">
         <v>141</v>
@@ -12597,8 +12613,8 @@
       <c r="K79" s="18">
         <v>1</v>
       </c>
-      <c r="L79" s="12" t="s">
-        <v>21</v>
+      <c r="L79" s="13" t="s">
+        <v>915</v>
       </c>
       <c r="M79" s="12" t="s">
         <v>142</v>
@@ -12615,12 +12631,12 @@
       <c r="S79" s="17"/>
       <c r="W79" s="12"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>133</v>
@@ -12635,13 +12651,13 @@
         <v>136</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>127</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>916</v>
+        <v>21</v>
       </c>
       <c r="J80" s="13" t="s">
         <v>141</v>
@@ -12649,8 +12665,8 @@
       <c r="K80" s="18">
         <v>1</v>
       </c>
-      <c r="L80" s="12" t="s">
-        <v>21</v>
+      <c r="L80" s="13" t="s">
+        <v>915</v>
       </c>
       <c r="M80" s="12" t="s">
         <v>142</v>
@@ -12667,12 +12683,12 @@
       <c r="S80" s="17"/>
       <c r="W80" s="12"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>139</v>
@@ -12687,13 +12703,13 @@
         <v>136</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>127</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>916</v>
+        <v>21</v>
       </c>
       <c r="J81" s="13" t="s">
         <v>141</v>
@@ -12701,8 +12717,8 @@
       <c r="K81" s="18">
         <v>1</v>
       </c>
-      <c r="L81" s="12" t="s">
-        <v>21</v>
+      <c r="L81" s="13" t="s">
+        <v>915</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>142</v>
@@ -12719,12 +12735,12 @@
       <c r="S81" s="17"/>
       <c r="W81" s="12"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>144</v>
@@ -12739,13 +12755,13 @@
         <v>146</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>147</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J82" s="13" t="s">
         <v>149</v>
@@ -12754,7 +12770,7 @@
         <v>142</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="M82" s="12" t="s">
         <v>21</v>
@@ -12769,22 +12785,22 @@
       <c r="Q82" s="16"/>
       <c r="R82" s="16"/>
       <c r="S82" s="17"/>
-      <c r="T82" s="57" t="s">
+      <c r="T82" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="U82" s="56" t="s">
+      <c r="U82" s="65" t="s">
         <v>151</v>
       </c>
       <c r="W82" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>152</v>
@@ -12799,13 +12815,13 @@
         <v>146</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>147</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J83" s="13" t="s">
         <v>149</v>
@@ -12814,7 +12830,7 @@
         <v>142</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="M83" s="12" t="s">
         <v>21</v>
@@ -12829,18 +12845,18 @@
       <c r="Q83" s="16"/>
       <c r="R83" s="16"/>
       <c r="S83" s="17"/>
-      <c r="T83" s="57"/>
-      <c r="U83" s="56"/>
+      <c r="T83" s="66"/>
+      <c r="U83" s="65"/>
       <c r="W83" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="33">
+    <row r="84" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>155</v>
@@ -12855,13 +12871,13 @@
         <v>157</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>147</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J84" s="13" t="s">
         <v>149</v>
@@ -12870,7 +12886,7 @@
         <v>31</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="M84" s="12" t="s">
         <v>21</v>
@@ -12895,12 +12911,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>144</v>
@@ -12915,22 +12931,22 @@
         <v>146</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>147</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>926</v>
+        <v>21</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K85" s="18">
         <v>1</v>
       </c>
-      <c r="L85" s="12" t="s">
-        <v>21</v>
+      <c r="L85" s="13" t="s">
+        <v>925</v>
       </c>
       <c r="M85" s="12" t="s">
         <v>21</v>
@@ -12949,12 +12965,12 @@
       <c r="U85" s="25"/>
       <c r="W85" s="12"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>152</v>
@@ -12969,13 +12985,13 @@
         <v>146</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>147</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>926</v>
+        <v>21</v>
       </c>
       <c r="J86" s="13" t="s">
         <v>149</v>
@@ -12983,8 +12999,8 @@
       <c r="K86" s="18">
         <v>1</v>
       </c>
-      <c r="L86" s="12" t="s">
-        <v>21</v>
+      <c r="L86" s="13" t="s">
+        <v>925</v>
       </c>
       <c r="M86" s="12" t="s">
         <v>21</v>
@@ -13003,12 +13019,12 @@
       <c r="U86" s="25"/>
       <c r="W86" s="12"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>155</v>
@@ -13023,13 +13039,13 @@
         <v>157</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>147</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>926</v>
+        <v>21</v>
       </c>
       <c r="J87" s="13" t="s">
         <v>149</v>
@@ -13037,8 +13053,8 @@
       <c r="K87" s="18">
         <v>1</v>
       </c>
-      <c r="L87" s="12" t="s">
-        <v>21</v>
+      <c r="L87" s="13" t="s">
+        <v>925</v>
       </c>
       <c r="M87" s="12" t="s">
         <v>21</v>
@@ -13057,12 +13073,12 @@
       <c r="U87" s="25"/>
       <c r="W87" s="12"/>
     </row>
-    <row r="88" spans="1:23" s="19" customFormat="1">
+    <row r="88" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="35" t="s">
         <v>697</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>69</v>
@@ -13077,7 +13093,7 @@
         <v>72</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>73</v>
@@ -13092,7 +13108,7 @@
         <v>31</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M88" s="13" t="s">
         <v>77</v>
@@ -13108,12 +13124,12 @@
       <c r="U88" s="55"/>
       <c r="W88" s="13"/>
     </row>
-    <row r="89" spans="1:23" s="19" customFormat="1">
+    <row r="89" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>90</v>
@@ -13128,7 +13144,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>93</v>
@@ -13143,7 +13159,7 @@
         <v>31</v>
       </c>
       <c r="L89" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M89" s="20" t="s">
         <v>25</v>
@@ -13159,12 +13175,12 @@
       <c r="U89" s="55"/>
       <c r="W89" s="13"/>
     </row>
-    <row r="90" spans="1:23" s="19" customFormat="1">
+    <row r="90" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>104</v>
@@ -13179,7 +13195,7 @@
         <v>106</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>107</v>
@@ -13194,7 +13210,7 @@
         <v>31</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M90" s="13" t="s">
         <v>108</v>
@@ -13210,12 +13226,12 @@
       <c r="U90" s="55"/>
       <c r="W90" s="13"/>
     </row>
-    <row r="91" spans="1:23" s="19" customFormat="1">
+    <row r="91" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="35" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>124</v>
@@ -13230,7 +13246,7 @@
         <v>126</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>127</v>
@@ -13245,7 +13261,7 @@
         <v>31</v>
       </c>
       <c r="L91" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M91" s="13" t="s">
         <v>129</v>
@@ -13261,12 +13277,12 @@
       <c r="U91" s="55"/>
       <c r="W91" s="13"/>
     </row>
-    <row r="92" spans="1:23" s="19" customFormat="1">
+    <row r="92" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>144</v>
@@ -13281,7 +13297,7 @@
         <v>157</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>147</v>
@@ -13296,7 +13312,7 @@
         <v>31</v>
       </c>
       <c r="L92" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M92" s="13" t="s">
         <v>149</v>
@@ -13312,7 +13328,7 @@
       <c r="U92" s="55"/>
       <c r="W92" s="13"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>160</v>
       </c>
@@ -13332,7 +13348,7 @@
         <v>164</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>73</v>
@@ -13362,17 +13378,17 @@
       <c r="Q93" s="16"/>
       <c r="R93" s="16"/>
       <c r="S93" s="17"/>
-      <c r="T93" s="56" t="s">
+      <c r="T93" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="U93" s="56" t="s">
+      <c r="U93" s="65" t="s">
         <v>168</v>
       </c>
       <c r="W93" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>169</v>
       </c>
@@ -13392,7 +13408,7 @@
         <v>72</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>73</v>
@@ -13422,13 +13438,13 @@
       <c r="Q94" s="16"/>
       <c r="R94" s="16"/>
       <c r="S94" s="17"/>
-      <c r="T94" s="56"/>
-      <c r="U94" s="56"/>
+      <c r="T94" s="65"/>
+      <c r="U94" s="65"/>
       <c r="W94" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>173</v>
       </c>
@@ -13448,7 +13464,7 @@
         <v>72</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>73</v>
@@ -13463,7 +13479,7 @@
         <v>31</v>
       </c>
       <c r="L95" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M95" s="12" t="s">
         <v>168</v>
@@ -13478,15 +13494,15 @@
       <c r="Q95" s="16"/>
       <c r="R95" s="16"/>
       <c r="S95" s="17"/>
-      <c r="T95" s="56"/>
-      <c r="U95" s="56"/>
+      <c r="T95" s="65"/>
+      <c r="U95" s="65"/>
       <c r="W95" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>177</v>
@@ -13504,7 +13520,7 @@
         <v>72</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>73</v>
@@ -13519,7 +13535,7 @@
         <v>31</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M96" s="14" t="s">
         <v>181</v>
@@ -13534,19 +13550,19 @@
       <c r="Q96" s="16"/>
       <c r="R96" s="16"/>
       <c r="S96" s="17"/>
-      <c r="T96" s="56" t="s">
+      <c r="T96" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="U96" s="56" t="s">
+      <c r="U96" s="65" t="s">
         <v>181</v>
       </c>
       <c r="W96" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>183</v>
@@ -13564,7 +13580,7 @@
         <v>72</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>73</v>
@@ -13579,7 +13595,7 @@
         <v>31</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="M97" s="14" t="s">
         <v>181</v>
@@ -13594,15 +13610,15 @@
       <c r="Q97" s="16"/>
       <c r="R97" s="16"/>
       <c r="S97" s="17"/>
-      <c r="T97" s="56"/>
-      <c r="U97" s="56"/>
+      <c r="T97" s="65"/>
+      <c r="U97" s="65"/>
       <c r="W97" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>187</v>
@@ -13620,7 +13636,7 @@
         <v>72</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>73</v>
@@ -13635,7 +13651,7 @@
         <v>31</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M98" s="14" t="s">
         <v>181</v>
@@ -13650,15 +13666,15 @@
       <c r="Q98" s="16"/>
       <c r="R98" s="16"/>
       <c r="S98" s="17"/>
-      <c r="T98" s="56"/>
-      <c r="U98" s="56"/>
+      <c r="T98" s="65"/>
+      <c r="U98" s="65"/>
       <c r="W98" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>190</v>
@@ -13676,7 +13692,7 @@
         <v>72</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>73</v>
@@ -13691,7 +13707,7 @@
         <v>31</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M99" s="14" t="s">
         <v>181</v>
@@ -13706,13 +13722,13 @@
       <c r="Q99" s="16"/>
       <c r="R99" s="16"/>
       <c r="S99" s="17"/>
-      <c r="T99" s="56"/>
-      <c r="U99" s="56"/>
+      <c r="T99" s="65"/>
+      <c r="U99" s="65"/>
       <c r="W99" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>193</v>
       </c>
@@ -13732,7 +13748,7 @@
         <v>72</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>73</v>
@@ -13747,7 +13763,7 @@
         <v>31</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M100" s="14" t="s">
         <v>181</v>
@@ -13762,13 +13778,13 @@
       <c r="Q100" s="16"/>
       <c r="R100" s="16"/>
       <c r="S100" s="17"/>
-      <c r="T100" s="56"/>
-      <c r="U100" s="56"/>
+      <c r="T100" s="65"/>
+      <c r="U100" s="65"/>
       <c r="W100" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>197</v>
       </c>
@@ -13788,7 +13804,7 @@
         <v>72</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>73</v>
@@ -13803,7 +13819,7 @@
         <v>31</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="M101" s="14" t="s">
         <v>181</v>
@@ -13818,13 +13834,13 @@
       <c r="Q101" s="16"/>
       <c r="R101" s="16"/>
       <c r="S101" s="17"/>
-      <c r="T101" s="56"/>
-      <c r="U101" s="56"/>
+      <c r="T101" s="65"/>
+      <c r="U101" s="65"/>
       <c r="W101" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>201</v>
       </c>
@@ -13844,7 +13860,7 @@
         <v>72</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>73</v>
@@ -13859,7 +13875,7 @@
         <v>31</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M102" s="14" t="s">
         <v>181</v>
@@ -13874,13 +13890,13 @@
       <c r="Q102" s="16"/>
       <c r="R102" s="16"/>
       <c r="S102" s="17"/>
-      <c r="T102" s="56"/>
-      <c r="U102" s="56"/>
+      <c r="T102" s="65"/>
+      <c r="U102" s="65"/>
       <c r="W102" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>205</v>
       </c>
@@ -13900,7 +13916,7 @@
         <v>72</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>73</v>
@@ -13915,7 +13931,7 @@
         <v>31</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M103" s="14" t="s">
         <v>181</v>
@@ -13930,13 +13946,13 @@
       <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
       <c r="S103" s="17"/>
-      <c r="T103" s="56"/>
-      <c r="U103" s="56"/>
+      <c r="T103" s="65"/>
+      <c r="U103" s="65"/>
       <c r="W103" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>209</v>
       </c>
@@ -13956,7 +13972,7 @@
         <v>72</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>73</v>
@@ -13983,7 +13999,7 @@
         <v>32</v>
       </c>
       <c r="P104" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Q104" s="6" t="s">
         <v>31</v>
@@ -13994,15 +14010,15 @@
       <c r="S104" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T104" s="56"/>
-      <c r="U104" s="56"/>
+      <c r="T104" s="65"/>
+      <c r="U104" s="65"/>
       <c r="W104" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="36" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>213</v>
@@ -14020,7 +14036,7 @@
         <v>146</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>147</v>
@@ -14035,7 +14051,7 @@
         <v>31</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M105" s="12" t="s">
         <v>217</v>
@@ -14050,19 +14066,19 @@
       <c r="Q105" s="16"/>
       <c r="R105" s="16"/>
       <c r="S105" s="17"/>
-      <c r="T105" s="56" t="s">
+      <c r="T105" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="U105" s="56" t="s">
+      <c r="U105" s="65" t="s">
         <v>219</v>
       </c>
       <c r="W105" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="36" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>220</v>
@@ -14080,7 +14096,7 @@
         <v>146</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>147</v>
@@ -14095,7 +14111,7 @@
         <v>142</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M106" s="12" t="s">
         <v>217</v>
@@ -14110,15 +14126,15 @@
       <c r="Q106" s="16"/>
       <c r="R106" s="16"/>
       <c r="S106" s="17"/>
-      <c r="T106" s="56"/>
-      <c r="U106" s="56"/>
+      <c r="T106" s="65"/>
+      <c r="U106" s="65"/>
       <c r="W106" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="36" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>223</v>
@@ -14136,7 +14152,7 @@
         <v>146</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>147</v>
@@ -14151,7 +14167,7 @@
         <v>142</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>217</v>
@@ -14166,15 +14182,15 @@
       <c r="Q107" s="16"/>
       <c r="R107" s="16"/>
       <c r="S107" s="17"/>
-      <c r="T107" s="56"/>
-      <c r="U107" s="56"/>
+      <c r="T107" s="65"/>
+      <c r="U107" s="65"/>
       <c r="W107" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="36" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>226</v>
@@ -14192,7 +14208,7 @@
         <v>146</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H108" s="11" t="s">
         <v>147</v>
@@ -14207,7 +14223,7 @@
         <v>142</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M108" s="12" t="s">
         <v>217</v>
@@ -14222,18 +14238,18 @@
       <c r="Q108" s="16"/>
       <c r="R108" s="16"/>
       <c r="S108" s="17"/>
-      <c r="T108" s="56"/>
-      <c r="U108" s="56"/>
+      <c r="T108" s="65"/>
+      <c r="U108" s="65"/>
       <c r="W108" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="36" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>229</v>
@@ -14248,7 +14264,7 @@
         <v>146</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H109" s="11" t="s">
         <v>147</v>
@@ -14275,7 +14291,7 @@
         <v>32</v>
       </c>
       <c r="P109" s="13" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Q109" s="6" t="s">
         <v>31</v>
@@ -14286,18 +14302,18 @@
       <c r="S109" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T109" s="56"/>
-      <c r="U109" s="56"/>
+      <c r="T109" s="65"/>
+      <c r="U109" s="65"/>
       <c r="W109" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="36" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>232</v>
@@ -14312,7 +14328,7 @@
         <v>146</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>147</v>
@@ -14350,18 +14366,18 @@
       <c r="S110" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T110" s="56"/>
-      <c r="U110" s="56"/>
+      <c r="T110" s="65"/>
+      <c r="U110" s="65"/>
       <c r="W110" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="36" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>235</v>
@@ -14376,7 +14392,7 @@
         <v>146</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>147</v>
@@ -14414,18 +14430,18 @@
       <c r="S111" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T111" s="56"/>
-      <c r="U111" s="56"/>
+      <c r="T111" s="65"/>
+      <c r="U111" s="65"/>
       <c r="W111" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="36" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>238</v>
@@ -14440,7 +14456,7 @@
         <v>146</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>147</v>
@@ -14478,18 +14494,18 @@
       <c r="S112" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T112" s="56"/>
-      <c r="U112" s="56"/>
+      <c r="T112" s="65"/>
+      <c r="U112" s="65"/>
       <c r="W112" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="36" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>242</v>
@@ -14504,7 +14520,7 @@
         <v>146</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>147</v>
@@ -14542,18 +14558,18 @@
       <c r="S113" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T113" s="56"/>
-      <c r="U113" s="56"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="65"/>
       <c r="W113" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="36" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>245</v>
@@ -14568,7 +14584,7 @@
         <v>146</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>147</v>
@@ -14606,18 +14622,18 @@
       <c r="S114" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T114" s="56"/>
-      <c r="U114" s="56"/>
+      <c r="T114" s="65"/>
+      <c r="U114" s="65"/>
       <c r="W114" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="36" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>248</v>
@@ -14632,7 +14648,7 @@
         <v>146</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>147</v>
@@ -14670,18 +14686,18 @@
       <c r="S115" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T115" s="56"/>
-      <c r="U115" s="56"/>
+      <c r="T115" s="65"/>
+      <c r="U115" s="65"/>
       <c r="W115" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="36" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>252</v>
@@ -14696,7 +14712,7 @@
         <v>146</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>147</v>
@@ -14734,18 +14750,18 @@
       <c r="S116" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T116" s="56"/>
-      <c r="U116" s="56"/>
+      <c r="T116" s="65"/>
+      <c r="U116" s="65"/>
       <c r="W116" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="36" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>256</v>
@@ -14760,7 +14776,7 @@
         <v>146</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H117" s="11" t="s">
         <v>147</v>
@@ -14798,18 +14814,18 @@
       <c r="S117" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T117" s="56"/>
-      <c r="U117" s="56"/>
+      <c r="T117" s="65"/>
+      <c r="U117" s="65"/>
       <c r="W117" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="36" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>259</v>
@@ -14824,7 +14840,7 @@
         <v>146</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>147</v>
@@ -14862,18 +14878,18 @@
       <c r="S118" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T118" s="56"/>
-      <c r="U118" s="56"/>
+      <c r="T118" s="65"/>
+      <c r="U118" s="65"/>
       <c r="W118" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="36" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>263</v>
@@ -14888,7 +14904,7 @@
         <v>146</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>147</v>
@@ -14926,18 +14942,18 @@
       <c r="S119" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T119" s="56"/>
-      <c r="U119" s="56"/>
+      <c r="T119" s="65"/>
+      <c r="U119" s="65"/>
       <c r="W119" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>267</v>
@@ -14952,7 +14968,7 @@
         <v>146</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>147</v>
@@ -14990,18 +15006,18 @@
       <c r="S120" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T120" s="56"/>
-      <c r="U120" s="56"/>
+      <c r="T120" s="65"/>
+      <c r="U120" s="65"/>
       <c r="W120" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="36" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>270</v>
@@ -15016,7 +15032,7 @@
         <v>146</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>147</v>
@@ -15054,18 +15070,18 @@
       <c r="S121" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T121" s="56"/>
-      <c r="U121" s="56"/>
+      <c r="T121" s="65"/>
+      <c r="U121" s="65"/>
       <c r="W121" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="36" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>274</v>
@@ -15080,7 +15096,7 @@
         <v>146</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H122" s="11" t="s">
         <v>147</v>
@@ -15118,18 +15134,18 @@
       <c r="S122" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T122" s="56"/>
-      <c r="U122" s="56"/>
+      <c r="T122" s="65"/>
+      <c r="U122" s="65"/>
       <c r="W122" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="36" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>278</v>
@@ -15144,7 +15160,7 @@
         <v>146</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>147</v>
@@ -15182,18 +15198,18 @@
       <c r="S123" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T123" s="56"/>
-      <c r="U123" s="56"/>
+      <c r="T123" s="65"/>
+      <c r="U123" s="65"/>
       <c r="W123" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="36" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>229</v>
@@ -15208,7 +15224,7 @@
         <v>146</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H124" s="11" t="s">
         <v>147</v>
@@ -15250,12 +15266,12 @@
       <c r="U124" s="34"/>
       <c r="W124" s="12"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="36" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>232</v>
@@ -15270,7 +15286,7 @@
         <v>146</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H125" s="11" t="s">
         <v>147</v>
@@ -15312,12 +15328,12 @@
       <c r="U125" s="34"/>
       <c r="W125" s="12"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="36" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>235</v>
@@ -15332,7 +15348,7 @@
         <v>146</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H126" s="11" t="s">
         <v>147</v>
@@ -15374,12 +15390,12 @@
       <c r="U126" s="34"/>
       <c r="W126" s="12"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="36" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>238</v>
@@ -15394,7 +15410,7 @@
         <v>146</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H127" s="11" t="s">
         <v>147</v>
@@ -15436,12 +15452,12 @@
       <c r="U127" s="34"/>
       <c r="W127" s="12"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>242</v>
@@ -15456,7 +15472,7 @@
         <v>146</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H128" s="11" t="s">
         <v>147</v>
@@ -15498,12 +15514,12 @@
       <c r="U128" s="34"/>
       <c r="W128" s="12"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>245</v>
@@ -15518,7 +15534,7 @@
         <v>146</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H129" s="11" t="s">
         <v>147</v>
@@ -15560,12 +15576,12 @@
       <c r="U129" s="34"/>
       <c r="W129" s="12"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="36" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>248</v>
@@ -15580,7 +15596,7 @@
         <v>146</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H130" s="11" t="s">
         <v>147</v>
@@ -15622,12 +15638,12 @@
       <c r="U130" s="34"/>
       <c r="W130" s="12"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="36" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>252</v>
@@ -15642,7 +15658,7 @@
         <v>146</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H131" s="11" t="s">
         <v>147</v>
@@ -15684,12 +15700,12 @@
       <c r="U131" s="34"/>
       <c r="W131" s="12"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="36" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>256</v>
@@ -15704,7 +15720,7 @@
         <v>146</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>147</v>
@@ -15746,12 +15762,12 @@
       <c r="U132" s="34"/>
       <c r="W132" s="12"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="36" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>259</v>
@@ -15766,7 +15782,7 @@
         <v>146</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H133" s="11" t="s">
         <v>147</v>
@@ -15808,12 +15824,12 @@
       <c r="U133" s="34"/>
       <c r="W133" s="12"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="36" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>263</v>
@@ -15828,7 +15844,7 @@
         <v>146</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H134" s="11" t="s">
         <v>147</v>
@@ -15870,12 +15886,12 @@
       <c r="U134" s="34"/>
       <c r="W134" s="12"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="36" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>267</v>
@@ -15890,7 +15906,7 @@
         <v>146</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H135" s="11" t="s">
         <v>147</v>
@@ -15932,12 +15948,12 @@
       <c r="U135" s="34"/>
       <c r="W135" s="12"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="36" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B136" s="36" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>270</v>
@@ -15952,7 +15968,7 @@
         <v>146</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H136" s="11" t="s">
         <v>147</v>
@@ -15994,12 +16010,12 @@
       <c r="U136" s="34"/>
       <c r="W136" s="12"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="36" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>274</v>
@@ -16014,7 +16030,7 @@
         <v>146</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>147</v>
@@ -16056,12 +16072,12 @@
       <c r="U137" s="34"/>
       <c r="W137" s="12"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="36" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>278</v>
@@ -16076,7 +16092,7 @@
         <v>146</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H138" s="11" t="s">
         <v>147</v>
@@ -16118,7 +16134,7 @@
       <c r="U138" s="34"/>
       <c r="W138" s="12"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D139" s="9"/>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
@@ -16128,7 +16144,7 @@
       <c r="U139" s="34"/>
       <c r="W139" s="12"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D140" s="9"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
@@ -16138,7 +16154,7 @@
       <c r="U140" s="34"/>
       <c r="W140" s="12"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D141" s="9"/>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
@@ -16148,7 +16164,7 @@
       <c r="U141" s="34"/>
       <c r="W141" s="12"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D142" s="9"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
@@ -16158,7 +16174,7 @@
       <c r="U142" s="34"/>
       <c r="W142" s="12"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D143" s="9"/>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
@@ -16168,43 +16184,43 @@
       <c r="U143" s="34"/>
       <c r="W143" s="12"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="P144" s="12"/>
     </row>
-    <row r="145" spans="2:19">
+    <row r="145" spans="2:19" x14ac:dyDescent="0.3">
       <c r="P145" s="12"/>
     </row>
-    <row r="146" spans="2:19">
+    <row r="146" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B146" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="147" spans="2:19">
+    <row r="147" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C147" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="2:19">
+    <row r="148" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C148" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="2:19">
+    <row r="149" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D149" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="2:19">
+    <row r="150" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D150" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="2:19">
+    <row r="152" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C152" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="155" spans="2:19">
+    <row r="155" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
         <v>286</v>
       </c>
@@ -16212,12 +16228,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="2:19">
+    <row r="158" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C158" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="159" spans="2:19">
+    <row r="159" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D159" s="22" t="s">
         <v>289</v>
       </c>
@@ -16236,7 +16252,7 @@
       <c r="O159" s="6"/>
       <c r="S159" s="6"/>
     </row>
-    <row r="160" spans="2:19">
+    <row r="160" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D160" s="23" t="s">
         <v>291</v>
       </c>
@@ -16255,7 +16271,7 @@
       <c r="O160" s="6"/>
       <c r="S160" s="6"/>
     </row>
-    <row r="161" spans="4:19">
+    <row r="161" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D161" s="24" t="s">
         <v>291</v>
       </c>
@@ -16276,18 +16292,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:T19"/>
-    <mergeCell ref="U2:U19"/>
-    <mergeCell ref="T20:T37"/>
-    <mergeCell ref="U20:U37"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="T76:T77"/>
-    <mergeCell ref="U76:U77"/>
     <mergeCell ref="T105:T123"/>
     <mergeCell ref="U105:U123"/>
     <mergeCell ref="T82:T83"/>
@@ -16296,6 +16300,18 @@
     <mergeCell ref="U93:U95"/>
     <mergeCell ref="T96:T104"/>
     <mergeCell ref="U96:U104"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="T76:T77"/>
+    <mergeCell ref="U76:U77"/>
+    <mergeCell ref="T2:T19"/>
+    <mergeCell ref="U2:U19"/>
+    <mergeCell ref="T20:T37"/>
+    <mergeCell ref="U20:U37"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="U38:U40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16311,14 +16327,14 @@
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="38" customFormat="1" ht="21">
+    <row r="1" spans="1:4" s="38" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>822</v>
       </c>
@@ -16329,10 +16345,10 @@
         <v>703</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16346,7 +16362,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
         <v>827</v>
       </c>
@@ -16357,7 +16373,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>828</v>
       </c>
@@ -16368,7 +16384,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
         <v>829</v>
       </c>
@@ -16379,7 +16395,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
         <v>830</v>
       </c>
@@ -16390,7 +16406,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -16404,7 +16420,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>834</v>
       </c>
@@ -16415,7 +16431,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>859</v>
       </c>
@@ -16426,7 +16442,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>838</v>
       </c>
@@ -16437,7 +16453,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>840</v>
       </c>
@@ -16448,7 +16464,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -16462,7 +16478,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>844</v>
       </c>
@@ -16473,7 +16489,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>847</v>
       </c>
@@ -16484,7 +16500,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>848</v>
       </c>
@@ -16495,7 +16511,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>851</v>
       </c>
@@ -16506,7 +16522,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>860</v>
       </c>
@@ -16517,7 +16533,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>861</v>
       </c>
@@ -16528,7 +16544,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>862</v>
       </c>
@@ -16539,7 +16555,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>863</v>
       </c>
@@ -16550,7 +16566,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>864</v>
       </c>
@@ -16561,7 +16577,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -16575,7 +16591,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
         <v>853</v>
       </c>
@@ -16586,7 +16602,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
         <v>854</v>
       </c>
@@ -16597,7 +16613,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
         <v>855</v>
       </c>
@@ -16608,7 +16624,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
         <v>856</v>
       </c>
@@ -16619,7 +16635,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -16633,7 +16649,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>825</v>
       </c>
@@ -16644,9 +16660,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>807</v>
@@ -16655,7 +16671,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>857</v>
       </c>
@@ -16666,7 +16682,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -16677,21 +16693,21 @@
         <v>89</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>880</v>
       </c>
@@ -16699,26 +16715,26 @@
         <v>97</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>7</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="C42" s="13" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
         <v>892</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="13" t="s">
-        <v>893</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>115</v>
@@ -16727,59 +16743,59 @@
         <v>824</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C48" t="s">
         <v>132</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>9</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>148</v>
@@ -16788,18 +16804,18 @@
         <v>824</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>154</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -16810,145 +16826,145 @@
         <v>728</v>
       </c>
       <c r="D56" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C57" t="s">
         <v>728</v>
       </c>
       <c r="D57" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="51" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C58" t="s">
         <v>728</v>
       </c>
       <c r="D58" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="51" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C59" t="s">
         <v>728</v>
       </c>
       <c r="D59" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="51" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C60" t="s">
         <v>728</v>
       </c>
       <c r="D60" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>11</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C62" t="s">
         <v>728</v>
       </c>
       <c r="D62" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C63" t="s">
         <v>728</v>
       </c>
       <c r="D63" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C64" t="s">
         <v>728</v>
       </c>
       <c r="D64" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C65" t="s">
         <v>728</v>
       </c>
       <c r="D65" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C67" t="s">
         <v>728</v>
       </c>
       <c r="D67" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C68" t="s">
         <v>728</v>
       </c>
       <c r="D68" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C69" t="s">
         <v>728</v>
       </c>
       <c r="D69" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C70" t="s">
         <v>728</v>
       </c>
       <c r="D70" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -16965,7 +16981,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="26"/>
     <col min="2" max="2" width="13.109375" style="26" bestFit="1" customWidth="1"/>
@@ -16977,7 +16993,7 @@
     <col min="8" max="16384" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>294</v>
       </c>
@@ -16988,7 +17004,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="28" t="s">
         <v>295</v>
@@ -17007,7 +17023,7 @@
       </c>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="26" t="s">
         <v>300</v>
@@ -17024,7 +17040,7 @@
       </c>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="26" t="s">
         <v>304</v>
@@ -17041,7 +17057,7 @@
       </c>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
         <v>308</v>
@@ -17058,7 +17074,7 @@
       </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
       <c r="B6" s="26" t="s">
         <v>312</v>
@@ -17075,7 +17091,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="26" t="s">
         <v>316</v>
@@ -17092,7 +17108,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="26" t="s">
         <v>320</v>
@@ -17109,7 +17125,7 @@
       </c>
       <c r="G8" s="27"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="26" t="s">
         <v>300</v>
@@ -17126,7 +17142,7 @@
       </c>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="26" t="s">
         <v>304</v>
@@ -17143,7 +17159,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
       <c r="B11" s="26" t="s">
         <v>308</v>
@@ -17160,7 +17176,7 @@
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="26" t="s">
         <v>312</v>
@@ -17177,7 +17193,7 @@
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="26" t="s">
         <v>316</v>
@@ -17194,7 +17210,7 @@
       </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="26" t="s">
         <v>320</v>
@@ -17211,7 +17227,7 @@
       </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="26" t="s">
         <v>300</v>
@@ -17228,7 +17244,7 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="26" t="s">
         <v>304</v>
@@ -17245,7 +17261,7 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>308</v>
       </c>
@@ -17266,7 +17282,7 @@
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
         <v>342</v>
       </c>
@@ -17287,7 +17303,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>346</v>
       </c>
@@ -17308,7 +17324,7 @@
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
         <v>350</v>
       </c>
@@ -17329,7 +17345,7 @@
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="2:12" ht="52.5" customHeight="1">
+    <row r="21" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
         <v>354</v>
       </c>
@@ -17350,7 +17366,7 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="2:12" ht="28.5" customHeight="1">
+    <row r="22" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
         <v>358</v>
       </c>
@@ -17371,7 +17387,7 @@
       <c r="K22" s="27"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="2:12" ht="28.5" customHeight="1">
+    <row r="23" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>362</v>
       </c>
@@ -17392,7 +17408,7 @@
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
         <v>366</v>
       </c>
@@ -17413,7 +17429,7 @@
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
         <v>370</v>
       </c>
@@ -17434,7 +17450,7 @@
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
         <v>374</v>
       </c>
@@ -17455,7 +17471,7 @@
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="26" t="s">
         <v>378</v>
       </c>
@@ -17476,7 +17492,7 @@
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
         <v>382</v>
       </c>
@@ -17497,7 +17513,7 @@
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
         <v>386</v>
       </c>
@@ -17518,7 +17534,7 @@
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
         <v>390</v>
       </c>
@@ -17539,7 +17555,7 @@
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
         <v>394</v>
       </c>
@@ -17560,7 +17576,7 @@
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
         <v>398</v>
       </c>
@@ -17581,7 +17597,7 @@
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
         <v>402</v>
       </c>
@@ -17597,7 +17613,7 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
         <v>406</v>
       </c>
@@ -17613,7 +17629,7 @@
       </c>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="26" t="s">
         <v>410</v>
       </c>
@@ -17629,7 +17645,7 @@
       </c>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="2:7" ht="56.25" customHeight="1">
+    <row r="36" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
         <v>414</v>
       </c>
@@ -17645,7 +17661,7 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="2:7" ht="56.25" customHeight="1">
+    <row r="37" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
         <v>418</v>
       </c>
@@ -17661,7 +17677,7 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="2:7" ht="56.25" customHeight="1">
+    <row r="38" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
         <v>422</v>
       </c>
@@ -17677,7 +17693,7 @@
       </c>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="2:7" ht="56.25" customHeight="1">
+    <row r="39" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
         <v>426</v>
       </c>
@@ -17693,7 +17709,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="2:7" ht="55.5" customHeight="1">
+    <row r="40" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
         <v>430</v>
       </c>
@@ -17709,7 +17725,7 @@
       </c>
       <c r="G40" s="30"/>
     </row>
-    <row r="41" spans="2:7" ht="55.5" customHeight="1">
+    <row r="41" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
         <v>434</v>
       </c>
@@ -17725,7 +17741,7 @@
       </c>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="2:7" ht="55.5" customHeight="1">
+    <row r="42" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
         <v>438</v>
       </c>
@@ -17741,7 +17757,7 @@
       </c>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="2:7" ht="55.5" customHeight="1">
+    <row r="43" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="26" t="s">
         <v>442</v>
       </c>
@@ -17757,7 +17773,7 @@
       </c>
       <c r="G43" s="30"/>
     </row>
-    <row r="44" spans="2:7" ht="57.75" customHeight="1">
+    <row r="44" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26" t="s">
         <v>446</v>
       </c>
@@ -17773,7 +17789,7 @@
       </c>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="2:7" ht="57.75" customHeight="1">
+    <row r="45" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="26" t="s">
         <v>450</v>
       </c>
@@ -17789,7 +17805,7 @@
       </c>
       <c r="G45" s="30"/>
     </row>
-    <row r="46" spans="2:7" ht="57.75" customHeight="1">
+    <row r="46" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="26" t="s">
         <v>454</v>
       </c>
@@ -17805,7 +17821,7 @@
       </c>
       <c r="G46" s="30"/>
     </row>
-    <row r="47" spans="2:7" ht="57.75" customHeight="1">
+    <row r="47" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26" t="s">
         <v>458</v>
       </c>
@@ -17821,7 +17837,7 @@
       </c>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="2:7" ht="57.75" customHeight="1">
+    <row r="48" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="26" t="s">
         <v>462</v>
       </c>
@@ -17837,7 +17853,7 @@
       </c>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="26" t="s">
         <v>466</v>
       </c>
@@ -17856,7 +17872,7 @@
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="26" t="s">
         <v>470</v>
       </c>
@@ -17875,7 +17891,7 @@
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="26" t="s">
         <v>474</v>
       </c>
@@ -17894,7 +17910,7 @@
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
         <v>478</v>
       </c>
@@ -17913,7 +17929,7 @@
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="26" t="s">
         <v>482</v>
       </c>
@@ -17932,7 +17948,7 @@
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>486</v>
       </c>
@@ -17951,7 +17967,7 @@
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="26" t="s">
         <v>238</v>
       </c>
@@ -17970,7 +17986,7 @@
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="26" t="s">
         <v>242</v>
       </c>
@@ -17989,7 +18005,7 @@
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="26" t="s">
         <v>245</v>
       </c>
@@ -18008,7 +18024,7 @@
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
     </row>
-    <row r="58" spans="2:10" ht="33" customHeight="1">
+    <row r="58" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="26" t="s">
         <v>496</v>
       </c>
@@ -18027,7 +18043,7 @@
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
     </row>
-    <row r="59" spans="2:10" ht="33" customHeight="1">
+    <row r="59" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="26" t="s">
         <v>499</v>
       </c>
@@ -18046,7 +18062,7 @@
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
     </row>
-    <row r="60" spans="2:10" ht="57" customHeight="1">
+    <row r="60" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>502</v>
       </c>
@@ -18065,7 +18081,7 @@
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="26" t="s">
         <v>259</v>
       </c>
@@ -18084,7 +18100,7 @@
       <c r="I61" s="27"/>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="26" t="s">
         <v>263</v>
       </c>
@@ -18103,7 +18119,7 @@
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="26" t="s">
         <v>267</v>
       </c>
@@ -18122,7 +18138,7 @@
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="26" t="s">
         <v>270</v>
       </c>
@@ -18141,7 +18157,7 @@
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
       <c r="B65" s="26" t="s">
         <v>274</v>
@@ -18159,7 +18175,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="27"/>
       <c r="B66" s="26" t="s">
         <v>278</v>
@@ -18177,7 +18193,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>517</v>
       </c>
@@ -18189,7 +18205,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="27"/>
       <c r="B69" s="28" t="s">
         <v>518</v>
@@ -18213,7 +18229,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="49.5" customHeight="1">
+    <row r="70" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
       <c r="B70" s="30" t="s">
         <v>522</v>
@@ -18235,7 +18251,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="49.5" customHeight="1">
+    <row r="71" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27"/>
       <c r="B71" s="30"/>
       <c r="C71" s="26" t="s">
@@ -18255,7 +18271,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
       <c r="B72" s="30"/>
       <c r="C72" s="27"/>
@@ -18265,7 +18281,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
     </row>
-    <row r="73" spans="1:8" ht="44.25" customHeight="1">
+    <row r="73" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="30" t="s">
         <v>533</v>
@@ -18287,7 +18303,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="44.25" customHeight="1">
+    <row r="74" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
       <c r="B74" s="30"/>
       <c r="C74" s="26" t="s">
@@ -18307,7 +18323,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
       <c r="B75" s="30"/>
       <c r="C75" s="27"/>
@@ -18317,7 +18333,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="47.25" customHeight="1">
+    <row r="76" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
       <c r="B76" s="30" t="s">
         <v>542</v>
@@ -18339,7 +18355,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="47.25" customHeight="1">
+    <row r="77" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
       <c r="B77" s="30"/>
       <c r="C77" s="26" t="s">
@@ -18359,7 +18375,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
       <c r="B78" s="30"/>
       <c r="C78" s="27"/>
@@ -18369,7 +18385,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
     </row>
-    <row r="79" spans="1:8" ht="43.5" customHeight="1">
+    <row r="79" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
       <c r="B79" s="30" t="s">
         <v>550</v>
@@ -18391,7 +18407,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.5" customHeight="1">
+    <row r="80" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
       <c r="B80" s="30"/>
       <c r="C80" s="26" t="s">
@@ -18411,7 +18427,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="30"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -18420,7 +18436,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
     </row>
-    <row r="82" spans="2:8" ht="53.25" customHeight="1">
+    <row r="82" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="30" t="s">
         <v>559</v>
       </c>
@@ -18441,7 +18457,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="53.25" customHeight="1">
+    <row r="83" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="27"/>
       <c r="C83" s="26" t="s">
         <v>528</v>
@@ -18460,7 +18476,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="30"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
@@ -18469,7 +18485,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
     </row>
-    <row r="85" spans="2:8" ht="56.25" customHeight="1">
+    <row r="85" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="30" t="s">
         <v>568</v>
       </c>
@@ -18490,7 +18506,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="56.25" customHeight="1">
+    <row r="86" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="30"/>
       <c r="C86" s="26" t="s">
         <v>528</v>
@@ -18509,7 +18525,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="30"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
@@ -18518,7 +18534,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
     </row>
-    <row r="88" spans="2:8" ht="58.5" customHeight="1">
+    <row r="88" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="30" t="s">
         <v>577</v>
       </c>
@@ -18539,7 +18555,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="58.5" customHeight="1">
+    <row r="89" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="30"/>
       <c r="C89" s="26" t="s">
         <v>528</v>
@@ -18558,7 +18574,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="30"/>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
@@ -18567,7 +18583,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
     </row>
-    <row r="91" spans="2:8" ht="53.25" customHeight="1">
+    <row r="91" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30" t="s">
         <v>586</v>
       </c>
@@ -18588,7 +18604,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="53.25" customHeight="1">
+    <row r="92" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="30"/>
       <c r="C92" s="26" t="s">
         <v>528</v>
@@ -18607,7 +18623,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="30"/>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
@@ -18616,7 +18632,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
     </row>
-    <row r="94" spans="2:8" ht="54" customHeight="1">
+    <row r="94" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="30" t="s">
         <v>595</v>
       </c>
@@ -18637,7 +18653,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="54" customHeight="1">
+    <row r="95" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="27"/>
       <c r="C95" s="26" t="s">
         <v>528</v>
@@ -18656,7 +18672,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="30"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
@@ -18665,7 +18681,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
     </row>
-    <row r="97" spans="2:8" ht="54.75" customHeight="1">
+    <row r="97" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="30" t="s">
         <v>604</v>
       </c>
@@ -18686,7 +18702,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="54.75" customHeight="1">
+    <row r="98" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="30"/>
       <c r="C98" s="26" t="s">
         <v>528</v>
@@ -18705,7 +18721,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="30"/>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
@@ -18714,7 +18730,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
     </row>
-    <row r="100" spans="2:8" ht="57" customHeight="1">
+    <row r="100" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="30" t="s">
         <v>613</v>
       </c>
@@ -18735,7 +18751,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="57" customHeight="1">
+    <row r="101" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="30"/>
       <c r="C101" s="26" t="s">
         <v>528</v>
@@ -18754,7 +18770,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="30"/>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
@@ -18763,7 +18779,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
     </row>
-    <row r="103" spans="2:8" ht="52.5" customHeight="1">
+    <row r="103" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="30" t="s">
         <v>622</v>
       </c>
@@ -18784,7 +18800,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="52.5" customHeight="1">
+    <row r="104" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="30"/>
       <c r="C104" s="26" t="s">
         <v>528</v>
@@ -18803,7 +18819,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="54.75" customHeight="1">
+    <row r="106" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="30" t="s">
         <v>631</v>
       </c>
@@ -18824,7 +18840,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="54.75" customHeight="1">
+    <row r="107" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="30"/>
       <c r="C107" s="26" t="s">
         <v>528</v>
@@ -18843,7 +18859,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="30"/>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
@@ -18852,7 +18868,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
     </row>
-    <row r="109" spans="2:8" ht="52.5" customHeight="1">
+    <row r="109" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="30" t="s">
         <v>640</v>
       </c>
@@ -18873,7 +18889,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="52.5" customHeight="1">
+    <row r="110" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="30"/>
       <c r="C110" s="26" t="s">
         <v>528</v>
@@ -18892,7 +18908,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="51" customHeight="1">
+    <row r="111" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="30" t="s">
         <v>649</v>
       </c>
@@ -18913,7 +18929,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="44.25" customHeight="1">
+    <row r="112" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="30"/>
       <c r="C112" s="26" t="s">
         <v>528</v>
@@ -18932,7 +18948,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="51.75" customHeight="1">
+    <row r="113" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
         <v>656</v>
       </c>
@@ -18944,7 +18960,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
     </row>
-    <row r="114" spans="1:8" ht="51.75" customHeight="1">
+    <row r="114" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="27"/>
       <c r="B114" s="28" t="s">
         <v>657</v>
@@ -18958,15 +18974,15 @@
       <c r="E114" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F114" s="58" t="s">
+      <c r="F114" s="67" t="s">
         <v>520</v>
       </c>
-      <c r="G114" s="58"/>
+      <c r="G114" s="67"/>
       <c r="H114" s="28" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="51.75" customHeight="1">
+    <row r="115" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="27"/>
       <c r="B115" s="30" t="s">
         <v>660</v>
@@ -18986,7 +19002,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="51.75" customHeight="1">
+    <row r="116" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="26" t="s">
@@ -19004,7 +19020,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="51.75" customHeight="1">
+    <row r="117" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
       <c r="C117" s="26" t="s">
@@ -19022,7 +19038,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="51.75" customHeight="1">
+    <row r="118" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="27"/>
       <c r="B118" s="27"/>
       <c r="C118" s="26" t="s">
@@ -19040,7 +19056,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="56.25" customHeight="1">
+    <row r="119" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="27"/>
       <c r="B119" s="27"/>
       <c r="C119" s="33" t="s">
@@ -19058,7 +19074,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="54" customHeight="1">
+    <row r="120" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
       <c r="C120" s="33" t="s">
@@ -19076,7 +19092,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="54" customHeight="1">
+    <row r="121" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="27"/>
       <c r="B121" s="30"/>
       <c r="C121" s="27"/>
@@ -19086,7 +19102,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
     </row>
-    <row r="122" spans="1:8" ht="54" customHeight="1">
+    <row r="122" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="27"/>
       <c r="B122" s="30" t="s">
         <v>681</v>
@@ -19106,7 +19122,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="54" customHeight="1">
+    <row r="123" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
       <c r="C123" s="26" t="s">
@@ -19124,7 +19140,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="58.5" customHeight="1">
+    <row r="124" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="27"/>
       <c r="B124" s="30"/>
       <c r="C124" s="26" t="s">
@@ -19142,7 +19158,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="55.5" customHeight="1">
+    <row r="125" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="27"/>
       <c r="B125" s="30"/>
       <c r="C125" s="26" t="s">
@@ -19160,7 +19176,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="49.5" customHeight="1">
+    <row r="126" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="27"/>
       <c r="B126" s="30" t="s">
         <v>622</v>
@@ -19180,7 +19196,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="27"/>
       <c r="B127" s="30"/>
       <c r="C127" s="27"/>
@@ -19190,7 +19206,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="27"/>
       <c r="B128" s="30"/>
       <c r="C128" s="27"/>
@@ -19200,49 +19216,49 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="30"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="30"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="30"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="30"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="30"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="30"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="30"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="30"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="30"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="30"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="30"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="30"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="30"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="30"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="30"/>
     </row>
   </sheetData>
